--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_3_16.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_3_16.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>288455.150399357</v>
+        <v>288367.4100138412</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18185884.2951306</v>
+        <v>18601640.52608541</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8728203.005386097</v>
+        <v>9135685.687344907</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5776120.30168987</v>
+        <v>5588236.534564998</v>
       </c>
     </row>
     <row r="11">
@@ -659,25 +661,25 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>275.863037340168</v>
       </c>
       <c r="D2" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>66.89891021597157</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -722,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -817,13 +819,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -832,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>98.77088257712678</v>
@@ -862,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
         <v>277.3826040146988</v>
@@ -880,10 +882,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>77.83743445102169</v>
       </c>
       <c r="Y4" t="n">
-        <v>119.4646525004566</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -896,13 +898,13 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>420.8729399924937</v>
@@ -911,10 +913,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>56.93430731171598</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -956,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>90.56765762246668</v>
       </c>
       <c r="X5" t="n">
         <v>407.6027988439302</v>
@@ -1054,13 +1056,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>104.9037564455519</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1072,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>57.2921511054921</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>240.905954296359</v>
@@ -1130,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>92.38090300811169</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>118.6930087371719</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1294,22 +1296,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>51.58543740429392</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
@@ -1373,19 +1375,19 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>92.38090300811082</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1427,16 +1429,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>271.2274065513855</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -1528,19 +1530,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>51.58543740429393</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>186.9220244343999</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
         <v>277.3826040146988</v>
@@ -1604,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>92.38090300811169</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1622,10 +1624,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>82.38632349886929</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1768,7 +1770,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>98.15366458399242</v>
+        <v>51.58543740429393</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
         <v>168.4336970060565</v>
@@ -1841,22 +1843,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>203.0845722362925</v>
       </c>
       <c r="C17" t="n">
-        <v>96.92885703944643</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1901,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
         <v>392.4274362026566</v>
@@ -1910,7 +1912,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -2002,25 +2004,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>98.2633455906804</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2059,16 +2061,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>211.273021497943</v>
       </c>
     </row>
     <row r="20">
@@ -2078,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>38.67187541878363</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,22 +2134,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>401.2838973446586</v>
+        <v>208.0459955848474</v>
       </c>
     </row>
     <row r="21">
@@ -2236,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2.669536049219304</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
@@ -2284,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>272.1038797892121</v>
+        <v>265.3439815931926</v>
       </c>
       <c r="X22" t="n">
         <v>240.1382575886529</v>
@@ -2315,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>421.717170453621</v>
@@ -2330,10 +2332,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>400.2956717864458</v>
+        <v>20.68607252438809</v>
       </c>
       <c r="H23" t="n">
-        <v>261.7620609868792</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V23" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2476,7 +2478,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>79.47996908724051</v>
+        <v>123.0673923170408</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2491,10 +2493,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2564,7 +2566,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
-        <v>71.94762989914915</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2618,10 +2620,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>58.67748875058447</v>
       </c>
     </row>
     <row r="27">
@@ -2716,7 +2718,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>40.84698832683103</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>164.546123788675</v>
@@ -2725,7 +2727,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>44.68628532417755</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
@@ -2789,19 +2791,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
-        <v>419.0596946068497</v>
+        <v>382.4606439765279</v>
       </c>
       <c r="E29" t="n">
-        <v>92.38090300811169</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2858,7 +2860,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2953,13 +2955,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>96.44420510686372</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -3007,7 +3009,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>4.250061189173434</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
         <v>272.1038797892121</v>
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>415.6498806486147</v>
+        <v>86.31361320310459</v>
       </c>
       <c r="C32" t="n">
         <v>422.6317226868329</v>
@@ -3038,7 +3040,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3092,10 +3094,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>58.67748875058538</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="33">
@@ -3190,22 +3192,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>51.58543740429393</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>161.6737988100375</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
         <v>272.1038797892121</v>
@@ -3263,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>66.72457055527018</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>421.717170453621</v>
@@ -3278,10 +3280,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3329,10 +3331,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>219.5495228210719</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="36">
@@ -3421,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>4.378995526348262</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3433,16 +3435,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3481,7 +3483,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>160.3366336391606</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
@@ -3500,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>418.8057628217573</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3518,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3563,13 +3565,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>392.4274362026566</v>
+        <v>123.1066887437335</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="39">
@@ -3676,10 +3678,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,22 +3708,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>109.8268474048516</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>123.9086344760398</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
         <v>240.1382575886529</v>
@@ -3737,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
         <v>218.7163152458132</v>
@@ -3797,13 +3799,13 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>281.0278647211301</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>227.2396892666428</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>64.99733418373762</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>124.2290557831222</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
@@ -3958,10 +3960,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
         <v>224.0793406271554</v>
@@ -3974,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>67.81237631315172</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>281.0278647211301</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4138,22 +4140,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>90.90586913785523</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
         <v>224.0793406271554</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1399.725618125737</v>
+        <v>1172.417318383226</v>
       </c>
       <c r="C2" t="n">
-        <v>1399.725618125737</v>
+        <v>893.7677857163897</v>
       </c>
       <c r="D2" t="n">
-        <v>976.4329973107372</v>
+        <v>470.47516490139</v>
       </c>
       <c r="E2" t="n">
-        <v>976.4329973107372</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="F2" t="n">
-        <v>551.3088155001374</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G2" t="n">
-        <v>146.969753089586</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H2" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I2" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J2" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K2" t="n">
-        <v>44.49822504924753</v>
+        <v>572.9146475090618</v>
       </c>
       <c r="L2" t="n">
-        <v>455.3583126271592</v>
+        <v>572.9146475090618</v>
       </c>
       <c r="M2" t="n">
-        <v>1006.023847611597</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="N2" t="n">
-        <v>1556.689382596036</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="O2" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="P2" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="Q2" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R2" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S2" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T2" t="n">
-        <v>2224.911252462377</v>
+        <v>2003.985681507009</v>
       </c>
       <c r="U2" t="n">
-        <v>2224.911252462377</v>
+        <v>2003.985681507009</v>
       </c>
       <c r="V2" t="n">
-        <v>2224.911252462377</v>
+        <v>2003.985681507009</v>
       </c>
       <c r="W2" t="n">
-        <v>2224.911252462377</v>
+        <v>2003.985681507009</v>
       </c>
       <c r="X2" t="n">
-        <v>2224.911252462377</v>
+        <v>1592.265682674756</v>
       </c>
       <c r="Y2" t="n">
-        <v>1819.573982417267</v>
+        <v>1592.265682674756</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>611.6217160807028</v>
+        <v>983.3471129133208</v>
       </c>
       <c r="C3" t="n">
-        <v>494.1158125982075</v>
+        <v>865.8412094308255</v>
       </c>
       <c r="D3" t="n">
-        <v>390.2758541134926</v>
+        <v>762.0012509461105</v>
       </c>
       <c r="E3" t="n">
-        <v>285.5739203864298</v>
+        <v>657.2993172190478</v>
       </c>
       <c r="F3" t="n">
-        <v>191.928090069334</v>
+        <v>563.653486901952</v>
       </c>
       <c r="G3" t="n">
-        <v>97.87431828693795</v>
+        <v>469.599715119556</v>
       </c>
       <c r="H3" t="n">
-        <v>44.49822504924753</v>
+        <v>416.2236218818656</v>
       </c>
       <c r="I3" t="n">
-        <v>44.49822504924753</v>
+        <v>416.2236218818656</v>
       </c>
       <c r="J3" t="n">
-        <v>316.1957143288386</v>
+        <v>687.9211111614567</v>
       </c>
       <c r="K3" t="n">
-        <v>316.1957143288386</v>
+        <v>687.9211111614567</v>
       </c>
       <c r="L3" t="n">
-        <v>866.8612493132769</v>
+        <v>687.9211111614567</v>
       </c>
       <c r="M3" t="n">
-        <v>1417.526784297715</v>
+        <v>1128.080930530455</v>
       </c>
       <c r="N3" t="n">
-        <v>1417.526784297715</v>
+        <v>1678.746465514893</v>
       </c>
       <c r="O3" t="n">
-        <v>1853.185855629757</v>
+        <v>1678.746465514893</v>
       </c>
       <c r="P3" t="n">
-        <v>1853.185855629757</v>
+        <v>1678.746465514893</v>
       </c>
       <c r="Q3" t="n">
-        <v>1853.185855629757</v>
+        <v>2142.891942377672</v>
       </c>
       <c r="R3" t="n">
-        <v>1853.185855629757</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S3" t="n">
-        <v>1771.861608191012</v>
+        <v>2143.58700502363</v>
       </c>
       <c r="T3" t="n">
-        <v>1629.98167248869</v>
+        <v>2001.707069321308</v>
       </c>
       <c r="U3" t="n">
-        <v>1445.213476408327</v>
+        <v>1816.938873240945</v>
       </c>
       <c r="V3" t="n">
-        <v>1240.240337547593</v>
+        <v>1611.965734380211</v>
       </c>
       <c r="W3" t="n">
-        <v>1043.71896038081</v>
+        <v>1415.444357213428</v>
       </c>
       <c r="X3" t="n">
-        <v>880.2416141474731</v>
+        <v>1251.967010980091</v>
       </c>
       <c r="Y3" t="n">
-        <v>740.5487255007655</v>
+        <v>1112.274122333384</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>617.588040521193</v>
+        <v>479.5561293032848</v>
       </c>
       <c r="C4" t="n">
-        <v>617.588040521193</v>
+        <v>307.5835661822009</v>
       </c>
       <c r="D4" t="n">
-        <v>454.2712676479637</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="E4" t="n">
-        <v>288.0630618008172</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="F4" t="n">
-        <v>288.0630618008172</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="G4" t="n">
-        <v>288.0630618008172</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="H4" t="n">
         <v>144.2667933089716</v>
       </c>
       <c r="I4" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J4" t="n">
         <v>101.9895532734055</v>
@@ -4507,31 +4509,31 @@
         <v>2097.911122221614</v>
       </c>
       <c r="Q4" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R4" t="n">
-        <v>2177.87263914955</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S4" t="n">
-        <v>2007.737591668685</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T4" t="n">
-        <v>2007.737591668685</v>
+        <v>1811.43685720741</v>
       </c>
       <c r="U4" t="n">
-        <v>1727.553143168989</v>
+        <v>1531.252408707715</v>
       </c>
       <c r="V4" t="n">
-        <v>1445.841675777018</v>
+        <v>1249.540941315744</v>
       </c>
       <c r="W4" t="n">
-        <v>1170.989271949531</v>
+        <v>974.6885374882565</v>
       </c>
       <c r="X4" t="n">
-        <v>928.4253753953359</v>
+        <v>896.0648663256084</v>
       </c>
       <c r="Y4" t="n">
-        <v>807.7540092332586</v>
+        <v>669.7220980153504</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>988.0056192934842</v>
+        <v>896.5231368465472</v>
       </c>
       <c r="C5" t="n">
-        <v>988.0056192934842</v>
+        <v>469.6224068598473</v>
       </c>
       <c r="D5" t="n">
-        <v>988.0056192934842</v>
+        <v>469.6224068598473</v>
       </c>
       <c r="E5" t="n">
-        <v>562.0286794413418</v>
+        <v>469.6224068598473</v>
       </c>
       <c r="F5" t="n">
-        <v>136.904497630742</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G5" t="n">
-        <v>136.904497630742</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H5" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I5" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J5" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K5" t="n">
-        <v>549.9383681074144</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="L5" t="n">
-        <v>549.9383681074144</v>
+        <v>1100.603903091852</v>
       </c>
       <c r="M5" t="n">
-        <v>549.9383681074144</v>
+        <v>1651.26943807629</v>
       </c>
       <c r="N5" t="n">
-        <v>549.9383681074144</v>
+        <v>1651.26943807629</v>
       </c>
       <c r="O5" t="n">
-        <v>1100.603903091853</v>
+        <v>1651.26943807629</v>
       </c>
       <c r="P5" t="n">
-        <v>1651.269438076291</v>
+        <v>1651.26943807629</v>
       </c>
       <c r="Q5" t="n">
-        <v>2107.354917580474</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R5" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S5" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T5" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U5" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V5" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="W5" t="n">
-        <v>2224.911252462377</v>
+        <v>2133.42877001544</v>
       </c>
       <c r="X5" t="n">
-        <v>1813.191253630124</v>
+        <v>1721.708771183187</v>
       </c>
       <c r="Y5" t="n">
-        <v>1407.853983585014</v>
+        <v>1316.371501138077</v>
       </c>
     </row>
     <row r="6">
@@ -4626,46 +4628,46 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D6" t="n">
-        <v>390.2758541134926</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E6" t="n">
-        <v>285.5739203864298</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F6" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G6" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H6" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I6" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J6" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K6" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L6" t="n">
-        <v>44.49822504924753</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="M6" t="n">
-        <v>595.1637600336857</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N6" t="n">
-        <v>1145.829295018124</v>
+        <v>1696.494830002561</v>
       </c>
       <c r="O6" t="n">
-        <v>1696.494830002562</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="P6" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="Q6" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R6" t="n">
         <v>1853.185855629757</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>268.5772905989112</v>
+        <v>485.7509513926031</v>
       </c>
       <c r="C7" t="n">
-        <v>268.5772905989112</v>
+        <v>313.7783882715191</v>
       </c>
       <c r="D7" t="n">
-        <v>268.5772905989112</v>
+        <v>150.4616153982898</v>
       </c>
       <c r="E7" t="n">
-        <v>102.3690847517648</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="F7" t="n">
-        <v>102.3690847517648</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G7" t="n">
-        <v>102.3690847517648</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H7" t="n">
-        <v>102.3690847517648</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I7" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J7" t="n">
         <v>101.9895532734055</v>
@@ -4747,28 +4749,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S7" t="n">
-        <v>2007.737591668684</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T7" t="n">
-        <v>1764.398243894584</v>
+        <v>1981.571904688275</v>
       </c>
       <c r="U7" t="n">
-        <v>1484.213795394888</v>
+        <v>1701.38745618858</v>
       </c>
       <c r="V7" t="n">
-        <v>1202.502328002917</v>
+        <v>1419.675988796609</v>
       </c>
       <c r="W7" t="n">
-        <v>927.6499241754298</v>
+        <v>1144.823584969122</v>
       </c>
       <c r="X7" t="n">
-        <v>685.0860276212348</v>
+        <v>902.2596884149267</v>
       </c>
       <c r="Y7" t="n">
-        <v>458.7432593109769</v>
+        <v>675.9169201046687</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>988.0056192934842</v>
+        <v>887.3827134031578</v>
       </c>
       <c r="C8" t="n">
-        <v>561.1048893067843</v>
+        <v>887.3827134031578</v>
       </c>
       <c r="D8" t="n">
-        <v>137.8122684917846</v>
+        <v>887.3827134031578</v>
       </c>
       <c r="E8" t="n">
-        <v>44.49822504924753</v>
+        <v>887.3827134031578</v>
       </c>
       <c r="F8" t="n">
-        <v>44.49822504924753</v>
+        <v>462.258531592558</v>
       </c>
       <c r="G8" t="n">
-        <v>44.49822504924753</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H8" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I8" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J8" t="n">
         <v>407.101683866143</v>
@@ -4808,46 +4810,46 @@
         <v>407.101683866143</v>
       </c>
       <c r="L8" t="n">
-        <v>957.7672188505812</v>
+        <v>407.101683866143</v>
       </c>
       <c r="M8" t="n">
-        <v>957.7672188505812</v>
+        <v>455.358312627159</v>
       </c>
       <c r="N8" t="n">
-        <v>1508.432753835019</v>
+        <v>1006.023847611597</v>
       </c>
       <c r="O8" t="n">
-        <v>1674.245717477938</v>
+        <v>1556.689382596035</v>
       </c>
       <c r="P8" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="Q8" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R8" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S8" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="T8" t="n">
-        <v>2224.911252462377</v>
+        <v>1899.618387380149</v>
       </c>
       <c r="U8" t="n">
-        <v>2224.911252462377</v>
+        <v>1641.263477976561</v>
       </c>
       <c r="V8" t="n">
-        <v>2224.911252462377</v>
+        <v>1283.774063102811</v>
       </c>
       <c r="W8" t="n">
-        <v>2224.911252462377</v>
+        <v>887.3827134031578</v>
       </c>
       <c r="X8" t="n">
-        <v>1813.191253630124</v>
+        <v>887.3827134031578</v>
       </c>
       <c r="Y8" t="n">
-        <v>1407.853983585014</v>
+        <v>887.3827134031578</v>
       </c>
     </row>
     <row r="9">
@@ -4863,37 +4865,37 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D9" t="n">
-        <v>390.2758541134926</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E9" t="n">
-        <v>285.5739203864298</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F9" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G9" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H9" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I9" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115936</v>
       </c>
       <c r="J9" t="n">
-        <v>316.1957143288386</v>
+        <v>51.94486801115936</v>
       </c>
       <c r="K9" t="n">
-        <v>316.1957143288386</v>
+        <v>51.94486801115936</v>
       </c>
       <c r="L9" t="n">
-        <v>866.8612493132769</v>
+        <v>602.6104029955973</v>
       </c>
       <c r="M9" t="n">
-        <v>1417.526784297715</v>
+        <v>751.8547856608814</v>
       </c>
       <c r="N9" t="n">
-        <v>1853.185855629757</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="O9" t="n">
         <v>1853.185855629757</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>268.5772905989112</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C10" t="n">
-        <v>96.60472747782725</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D10" t="n">
-        <v>44.49822504924753</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E10" t="n">
-        <v>44.49822504924753</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F10" t="n">
-        <v>44.49822504924753</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G10" t="n">
-        <v>44.49822504924753</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H10" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I10" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J10" t="n">
         <v>101.9895532734055</v>
@@ -4984,28 +4986,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S10" t="n">
-        <v>2007.737591668684</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T10" t="n">
-        <v>1764.398243894584</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U10" t="n">
-        <v>1484.213795394888</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V10" t="n">
-        <v>1202.502328002917</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W10" t="n">
-        <v>927.6499241754298</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X10" t="n">
-        <v>685.0860276212348</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y10" t="n">
-        <v>458.7432593109769</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1173.606395972464</v>
+        <v>988.0056192934833</v>
       </c>
       <c r="C11" t="n">
-        <v>746.7056659857641</v>
+        <v>561.1048893067834</v>
       </c>
       <c r="D11" t="n">
-        <v>746.7056659857641</v>
+        <v>137.8122684917837</v>
       </c>
       <c r="E11" t="n">
-        <v>746.7056659857641</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="F11" t="n">
-        <v>746.7056659857641</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G11" t="n">
-        <v>342.3666035752127</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H11" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I11" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J11" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K11" t="n">
-        <v>407.101683866143</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="L11" t="n">
-        <v>572.914647509062</v>
+        <v>1006.023847611597</v>
       </c>
       <c r="M11" t="n">
-        <v>1123.5801824935</v>
+        <v>1556.689382596035</v>
       </c>
       <c r="N11" t="n">
-        <v>1674.245717477938</v>
+        <v>1556.689382596035</v>
       </c>
       <c r="O11" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="P11" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="Q11" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R11" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S11" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T11" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U11" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V11" t="n">
-        <v>1867.421837588626</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="W11" t="n">
-        <v>1867.421837588626</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="X11" t="n">
-        <v>1593.454760263994</v>
+        <v>1813.191253630123</v>
       </c>
       <c r="Y11" t="n">
-        <v>1593.454760263994</v>
+        <v>1407.853983585013</v>
       </c>
     </row>
     <row r="12">
@@ -5100,40 +5102,40 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D12" t="n">
-        <v>390.2758541134926</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E12" t="n">
-        <v>285.5739203864298</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F12" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G12" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H12" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I12" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J12" t="n">
-        <v>205.6899987133984</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K12" t="n">
-        <v>756.3555336978366</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L12" t="n">
-        <v>756.3555336978366</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="M12" t="n">
-        <v>756.3555336978366</v>
+        <v>205.6899987133988</v>
       </c>
       <c r="N12" t="n">
-        <v>756.3555336978366</v>
+        <v>756.3555336978368</v>
       </c>
       <c r="O12" t="n">
-        <v>756.3555336978366</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="P12" t="n">
         <v>1307.021068682275</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>540.2801734753912</v>
+        <v>268.5772905989112</v>
       </c>
       <c r="C13" t="n">
-        <v>540.2801734753912</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="D13" t="n">
-        <v>376.9634006021619</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="E13" t="n">
-        <v>210.7551947550154</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="F13" t="n">
-        <v>210.7551947550154</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G13" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H13" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I13" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J13" t="n">
         <v>101.9895532734055</v>
@@ -5218,31 +5220,31 @@
         <v>2097.911122221614</v>
       </c>
       <c r="Q13" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R13" t="n">
-        <v>2224.911252462377</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S13" t="n">
-        <v>2224.911252462377</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T13" t="n">
-        <v>2036.101126771063</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.916678271368</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V13" t="n">
-        <v>1474.205210879397</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W13" t="n">
-        <v>1199.35280705191</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="X13" t="n">
-        <v>956.7889104977148</v>
+        <v>685.0860276212348</v>
       </c>
       <c r="Y13" t="n">
-        <v>730.4461421874569</v>
+        <v>458.7432593109769</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>988.0056192934842</v>
+        <v>804.1642048184414</v>
       </c>
       <c r="C14" t="n">
-        <v>561.1048893067843</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="D14" t="n">
-        <v>137.8122684917846</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="E14" t="n">
-        <v>44.49822504924753</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="F14" t="n">
-        <v>44.49822504924753</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="G14" t="n">
-        <v>44.49822504924753</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H14" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577631</v>
       </c>
       <c r="I14" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J14" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K14" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L14" t="n">
-        <v>595.1637600336857</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="M14" t="n">
-        <v>1145.829295018124</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="N14" t="n">
-        <v>1696.494830002562</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="O14" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="P14" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="Q14" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R14" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S14" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="T14" t="n">
-        <v>2224.911252462377</v>
+        <v>1899.618387380149</v>
       </c>
       <c r="U14" t="n">
-        <v>2224.911252462377</v>
+        <v>1641.263477976561</v>
       </c>
       <c r="V14" t="n">
-        <v>2224.911252462377</v>
+        <v>1283.774063102811</v>
       </c>
       <c r="W14" t="n">
-        <v>2224.911252462377</v>
+        <v>887.3827134031578</v>
       </c>
       <c r="X14" t="n">
-        <v>1813.191253630124</v>
+        <v>804.1642048184414</v>
       </c>
       <c r="Y14" t="n">
-        <v>1407.853983585014</v>
+        <v>804.1642048184414</v>
       </c>
     </row>
     <row r="15">
@@ -5337,40 +5339,40 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D15" t="n">
-        <v>390.2758541134926</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E15" t="n">
-        <v>285.5739203864298</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F15" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G15" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H15" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I15" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J15" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K15" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L15" t="n">
-        <v>44.49822504924753</v>
+        <v>201.1892506764434</v>
       </c>
       <c r="M15" t="n">
-        <v>595.1637600336857</v>
+        <v>751.8547856608814</v>
       </c>
       <c r="N15" t="n">
-        <v>1145.829295018124</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="O15" t="n">
-        <v>1696.494830002562</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P15" t="n">
         <v>1853.185855629757</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>315.615903911738</v>
+        <v>268.5772905989112</v>
       </c>
       <c r="C16" t="n">
-        <v>143.643340790654</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="D16" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="E16" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="F16" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G16" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H16" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I16" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J16" t="n">
         <v>101.9895532734055</v>
@@ -5458,28 +5460,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R16" t="n">
-        <v>2224.911252462376</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S16" t="n">
-        <v>2054.776204981511</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T16" t="n">
-        <v>1811.43685720741</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U16" t="n">
-        <v>1531.252408707715</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V16" t="n">
-        <v>1249.540941315744</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W16" t="n">
-        <v>974.6885374882565</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="X16" t="n">
-        <v>732.1246409340616</v>
+        <v>685.0860276212348</v>
       </c>
       <c r="Y16" t="n">
-        <v>505.7818726238037</v>
+        <v>458.7432593109769</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1416.799903930471</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="C17" t="n">
-        <v>1318.891967526989</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="D17" t="n">
-        <v>895.5993467119897</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="E17" t="n">
-        <v>469.6224068598473</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="F17" t="n">
-        <v>44.49822504924753</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="G17" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H17" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I17" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J17" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K17" t="n">
-        <v>44.49822504924753</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="L17" t="n">
-        <v>44.49822504924753</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="M17" t="n">
-        <v>595.1637600336857</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="N17" t="n">
-        <v>667.4947029893171</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O17" t="n">
-        <v>1218.160237973755</v>
+        <v>1696.494830002561</v>
       </c>
       <c r="P17" t="n">
-        <v>1768.825772958194</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="Q17" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R17" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S17" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T17" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U17" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V17" t="n">
-        <v>2224.911252462377</v>
+        <v>1867.421837588625</v>
       </c>
       <c r="W17" t="n">
-        <v>1828.519902762723</v>
+        <v>1471.030487888972</v>
       </c>
       <c r="X17" t="n">
-        <v>1416.799903930471</v>
+        <v>1059.310489056719</v>
       </c>
       <c r="Y17" t="n">
-        <v>1416.799903930471</v>
+        <v>653.9732190116096</v>
       </c>
     </row>
     <row r="18">
@@ -5568,73 +5570,73 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>983.3471129133217</v>
+        <v>983.3471129133208</v>
       </c>
       <c r="C18" t="n">
-        <v>865.8412094308264</v>
+        <v>865.8412094308255</v>
       </c>
       <c r="D18" t="n">
-        <v>762.0012509461114</v>
+        <v>762.0012509461105</v>
       </c>
       <c r="E18" t="n">
-        <v>657.2993172190487</v>
+        <v>657.2993172190478</v>
       </c>
       <c r="F18" t="n">
-        <v>563.6534869019529</v>
+        <v>563.653486901952</v>
       </c>
       <c r="G18" t="n">
-        <v>469.5997151195569</v>
+        <v>469.599715119556</v>
       </c>
       <c r="H18" t="n">
-        <v>416.2236218818665</v>
+        <v>416.2236218818656</v>
       </c>
       <c r="I18" t="n">
-        <v>416.2236218818665</v>
+        <v>416.2236218818656</v>
       </c>
       <c r="J18" t="n">
-        <v>416.2236218818665</v>
+        <v>416.2236218818656</v>
       </c>
       <c r="K18" t="n">
-        <v>416.2236218818665</v>
+        <v>416.2236218818656</v>
       </c>
       <c r="L18" t="n">
-        <v>966.8891568663047</v>
+        <v>416.2236218818656</v>
       </c>
       <c r="M18" t="n">
-        <v>1517.554691850743</v>
+        <v>966.8891568663036</v>
       </c>
       <c r="N18" t="n">
+        <v>1517.554691850742</v>
+      </c>
+      <c r="O18" t="n">
         <v>1674.245717477938</v>
       </c>
-      <c r="O18" t="n">
-        <v>2224.911252462377</v>
-      </c>
       <c r="P18" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="Q18" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R18" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S18" t="n">
-        <v>2143.587005023631</v>
+        <v>2143.58700502363</v>
       </c>
       <c r="T18" t="n">
-        <v>2001.707069321309</v>
+        <v>2001.707069321308</v>
       </c>
       <c r="U18" t="n">
-        <v>1816.938873240946</v>
+        <v>1816.938873240945</v>
       </c>
       <c r="V18" t="n">
-        <v>1611.965734380212</v>
+        <v>1611.965734380211</v>
       </c>
       <c r="W18" t="n">
-        <v>1415.444357213429</v>
+        <v>1415.444357213428</v>
       </c>
       <c r="X18" t="n">
-        <v>1251.967010980092</v>
+        <v>1251.967010980091</v>
       </c>
       <c r="Y18" t="n">
         <v>1112.274122333384</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>315.615903911738</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C19" t="n">
-        <v>216.3599992746871</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D19" t="n">
-        <v>216.3599992746871</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E19" t="n">
-        <v>216.3599992746871</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F19" t="n">
-        <v>44.49822504924753</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G19" t="n">
-        <v>44.49822504924753</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H19" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I19" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J19" t="n">
         <v>101.9895532734055</v>
@@ -5707,16 +5709,16 @@
         <v>1531.252408707715</v>
       </c>
       <c r="V19" t="n">
-        <v>1249.540941315744</v>
+        <v>1531.252408707715</v>
       </c>
       <c r="W19" t="n">
-        <v>974.6885374882565</v>
+        <v>1531.252408707715</v>
       </c>
       <c r="X19" t="n">
-        <v>732.1246409340616</v>
+        <v>1531.252408707715</v>
       </c>
       <c r="Y19" t="n">
-        <v>505.7818726238037</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1367.317248714524</v>
+        <v>781.6025372422928</v>
       </c>
       <c r="C20" t="n">
-        <v>940.4165187278243</v>
+        <v>781.6025372422928</v>
       </c>
       <c r="D20" t="n">
-        <v>517.1238979128245</v>
+        <v>781.6025372422928</v>
       </c>
       <c r="E20" t="n">
-        <v>91.1469580606821</v>
+        <v>781.6025372422928</v>
       </c>
       <c r="F20" t="n">
-        <v>52.08445763766833</v>
+        <v>781.6025372422928</v>
       </c>
       <c r="G20" t="n">
-        <v>52.08445763766833</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H20" t="n">
-        <v>52.08445763766833</v>
+        <v>79.39509630577631</v>
       </c>
       <c r="I20" t="n">
-        <v>52.08445763766833</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J20" t="n">
-        <v>52.08445763766833</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K20" t="n">
-        <v>52.08445763766833</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L20" t="n">
-        <v>214.5019125807964</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="M20" t="n">
-        <v>859.047075846942</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="N20" t="n">
-        <v>1503.592239113088</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="O20" t="n">
-        <v>2148.137402379233</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="P20" t="n">
-        <v>2148.137402379233</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="Q20" t="n">
-        <v>2604.222881883416</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R20" t="n">
-        <v>2604.222881883416</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S20" t="n">
-        <v>2604.222881883416</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T20" t="n">
-        <v>2604.222881883416</v>
+        <v>2003.985681507009</v>
       </c>
       <c r="U20" t="n">
-        <v>2604.222881883416</v>
+        <v>1745.630772103421</v>
       </c>
       <c r="V20" t="n">
-        <v>2604.222881883416</v>
+        <v>1388.141357229671</v>
       </c>
       <c r="W20" t="n">
-        <v>2604.222881883416</v>
+        <v>991.7500075300175</v>
       </c>
       <c r="X20" t="n">
-        <v>2192.502883051164</v>
+        <v>991.7500075300175</v>
       </c>
       <c r="Y20" t="n">
-        <v>1787.165613006054</v>
+        <v>781.6025372422928</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1362.658742334362</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C21" t="n">
-        <v>1245.152838851867</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D21" t="n">
-        <v>1141.312880367152</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E21" t="n">
-        <v>1036.610946640089</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F21" t="n">
-        <v>942.9651163229934</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G21" t="n">
-        <v>848.9113445405974</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H21" t="n">
-        <v>795.535251302907</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I21" t="n">
-        <v>795.535251302907</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J21" t="n">
-        <v>795.535251302907</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K21" t="n">
-        <v>795.535251302907</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L21" t="n">
-        <v>795.535251302907</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="M21" t="n">
-        <v>1440.080414569053</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N21" t="n">
-        <v>2084.625577835198</v>
+        <v>1696.494830002561</v>
       </c>
       <c r="O21" t="n">
-        <v>2604.222881883416</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P21" t="n">
-        <v>2604.222881883416</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q21" t="n">
-        <v>2604.222881883416</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R21" t="n">
-        <v>2604.222881883416</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S21" t="n">
-        <v>2522.898634444671</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T21" t="n">
-        <v>2381.018698742349</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U21" t="n">
-        <v>2196.250502661986</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V21" t="n">
-        <v>1991.277363801252</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W21" t="n">
-        <v>1794.75598663447</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X21" t="n">
-        <v>1631.278640401132</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y21" t="n">
-        <v>1491.585751754425</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>633.7680383204454</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C22" t="n">
-        <v>633.7680383204454</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D22" t="n">
-        <v>633.7680383204454</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E22" t="n">
-        <v>633.7680383204454</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F22" t="n">
-        <v>461.9062640950058</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G22" t="n">
-        <v>295.649294389238</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H22" t="n">
-        <v>151.8530258973924</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I22" t="n">
-        <v>52.08445763766833</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5757858618263</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K22" t="n">
-        <v>336.1033870676636</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L22" t="n">
-        <v>690.7927083620843</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M22" t="n">
-        <v>1081.978503332335</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N22" t="n">
-        <v>1459.470014208371</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O22" t="n">
-        <v>1814.898142888134</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P22" t="n">
-        <v>2105.497354810035</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q22" t="n">
-        <v>2232.497485050797</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R22" t="n">
-        <v>2185.45887173797</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S22" t="n">
-        <v>2185.45887173797</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T22" t="n">
-        <v>1942.11952396387</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="U22" t="n">
-        <v>1661.935075464174</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="V22" t="n">
-        <v>1380.223608072203</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="W22" t="n">
-        <v>1105.371204244716</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X22" t="n">
-        <v>862.8073076905208</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y22" t="n">
-        <v>636.4645393802629</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2459.036107182457</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="C23" t="n">
-        <v>2032.135377195757</v>
+        <v>1214.362747989862</v>
       </c>
       <c r="D23" t="n">
-        <v>1608.842756380758</v>
+        <v>1214.362747989862</v>
       </c>
       <c r="E23" t="n">
-        <v>1182.865816528615</v>
+        <v>788.3858081377197</v>
       </c>
       <c r="F23" t="n">
-        <v>757.7416347180153</v>
+        <v>363.2616263271199</v>
       </c>
       <c r="G23" t="n">
-        <v>353.402572307464</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H23" t="n">
-        <v>88.99645009849506</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I23" t="n">
-        <v>88.99645009849506</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J23" t="n">
-        <v>88.99645009849506</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K23" t="n">
-        <v>88.99645009849506</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L23" t="n">
-        <v>915.8614157102541</v>
+        <v>595.1637600336855</v>
       </c>
       <c r="M23" t="n">
-        <v>1920.147517129312</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="N23" t="n">
-        <v>2896.398575616013</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="O23" t="n">
-        <v>3741.543225766825</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="P23" t="n">
-        <v>4449.822504924753</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="Q23" t="n">
-        <v>4449.822504924753</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R23" t="n">
-        <v>4449.822504924753</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S23" t="n">
-        <v>4449.822504924753</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="T23" t="n">
-        <v>4449.822504924753</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U23" t="n">
-        <v>4449.822504924753</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V23" t="n">
-        <v>4092.333090051003</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="W23" t="n">
-        <v>3695.94174035135</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="X23" t="n">
-        <v>3284.221741519097</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="Y23" t="n">
-        <v>2878.884471473988</v>
+        <v>1641.263477976562</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>656.1199411299502</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C24" t="n">
-        <v>538.614037647455</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D24" t="n">
-        <v>434.7740791627401</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E24" t="n">
-        <v>330.0721454356773</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F24" t="n">
-        <v>236.4263151185814</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G24" t="n">
-        <v>142.3725433361855</v>
+        <v>97.87431828693794</v>
       </c>
       <c r="H24" t="n">
-        <v>88.99645009849506</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I24" t="n">
-        <v>88.99645009849506</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J24" t="n">
-        <v>88.99645009849506</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K24" t="n">
-        <v>88.99645009849506</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L24" t="n">
-        <v>925.7952581814012</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="M24" t="n">
-        <v>1897.684080679005</v>
+        <v>595.1637600336855</v>
       </c>
       <c r="N24" t="n">
-        <v>1897.684080679005</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O24" t="n">
-        <v>1897.684080679005</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="P24" t="n">
-        <v>1897.684080679005</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q24" t="n">
-        <v>1897.684080679005</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R24" t="n">
-        <v>1897.684080679005</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S24" t="n">
-        <v>1816.359833240259</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T24" t="n">
-        <v>1674.479897537938</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U24" t="n">
-        <v>1489.711701457574</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V24" t="n">
-        <v>1284.73856259684</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W24" t="n">
-        <v>1088.217185430058</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X24" t="n">
-        <v>924.7398391967206</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y24" t="n">
-        <v>785.046950550013</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2493.488543061289</v>
+        <v>268.5772905989117</v>
       </c>
       <c r="C25" t="n">
-        <v>2413.20574600347</v>
+        <v>144.2667933089715</v>
       </c>
       <c r="D25" t="n">
-        <v>2413.20574600347</v>
+        <v>144.2667933089715</v>
       </c>
       <c r="E25" t="n">
-        <v>2413.20574600347</v>
+        <v>144.2667933089715</v>
       </c>
       <c r="F25" t="n">
-        <v>2413.20574600347</v>
+        <v>144.2667933089715</v>
       </c>
       <c r="G25" t="n">
-        <v>2413.20574600347</v>
+        <v>144.2667933089715</v>
       </c>
       <c r="H25" t="n">
-        <v>2269.409477511625</v>
+        <v>144.2667933089715</v>
       </c>
       <c r="I25" t="n">
-        <v>2269.409477511625</v>
+        <v>44.49822504924748</v>
       </c>
       <c r="J25" t="n">
-        <v>2326.900805735783</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K25" t="n">
-        <v>2553.42840694162</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L25" t="n">
-        <v>2908.117728236041</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M25" t="n">
-        <v>3299.303523206292</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N25" t="n">
-        <v>3676.795034082327</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O25" t="n">
-        <v>4032.22316276209</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P25" t="n">
-        <v>4322.822374683991</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q25" t="n">
-        <v>4449.822504924753</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R25" t="n">
-        <v>4402.783891611926</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S25" t="n">
-        <v>4232.648844131061</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T25" t="n">
-        <v>3989.309496356961</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U25" t="n">
-        <v>3709.125047857265</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V25" t="n">
-        <v>3427.413580465294</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W25" t="n">
-        <v>3152.561176637807</v>
+        <v>927.6499241754302</v>
       </c>
       <c r="X25" t="n">
-        <v>2909.997280083613</v>
+        <v>685.0860276212353</v>
       </c>
       <c r="Y25" t="n">
-        <v>2683.654511773354</v>
+        <v>458.7432593109774</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1393.342889338594</v>
+        <v>1745.792697513689</v>
       </c>
       <c r="C26" t="n">
-        <v>966.4421593518939</v>
+        <v>1318.891967526989</v>
       </c>
       <c r="D26" t="n">
-        <v>543.1495385368942</v>
+        <v>895.5993467119897</v>
       </c>
       <c r="E26" t="n">
-        <v>117.1725986847517</v>
+        <v>469.6224068598473</v>
       </c>
       <c r="F26" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G26" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H26" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I26" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J26" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K26" t="n">
-        <v>595.1637600336857</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="L26" t="n">
-        <v>1145.829295018124</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="M26" t="n">
-        <v>1145.829295018124</v>
+        <v>1006.023847611597</v>
       </c>
       <c r="N26" t="n">
-        <v>1696.494830002562</v>
+        <v>1006.023847611597</v>
       </c>
       <c r="O26" t="n">
-        <v>2224.911252462377</v>
+        <v>1556.689382596035</v>
       </c>
       <c r="P26" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="Q26" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R26" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S26" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T26" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U26" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V26" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="W26" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="X26" t="n">
-        <v>1813.191253630124</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="Y26" t="n">
-        <v>1813.191253630124</v>
+        <v>2165.64106180522</v>
       </c>
     </row>
     <row r="27">
@@ -6285,46 +6287,46 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D27" t="n">
-        <v>390.2758541134926</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E27" t="n">
-        <v>285.5739203864298</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F27" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G27" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H27" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I27" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J27" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K27" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L27" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="M27" t="n">
-        <v>595.1637600336857</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="N27" t="n">
+        <v>595.1637600336854</v>
+      </c>
+      <c r="O27" t="n">
         <v>1145.829295018124</v>
       </c>
-      <c r="O27" t="n">
-        <v>1696.494830002562</v>
-      </c>
       <c r="P27" t="n">
-        <v>1853.185855629757</v>
+        <v>1696.494830002561</v>
       </c>
       <c r="Q27" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R27" t="n">
         <v>1853.185855629757</v>
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>595.8003524114338</v>
+        <v>720.7977379486854</v>
       </c>
       <c r="C28" t="n">
-        <v>423.8277892903498</v>
+        <v>548.8251748276014</v>
       </c>
       <c r="D28" t="n">
-        <v>382.5682051218336</v>
+        <v>548.8251748276014</v>
       </c>
       <c r="E28" t="n">
-        <v>216.3599992746871</v>
+        <v>382.6169689804549</v>
       </c>
       <c r="F28" t="n">
-        <v>44.49822504924753</v>
+        <v>210.7551947550154</v>
       </c>
       <c r="G28" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H28" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I28" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J28" t="n">
         <v>101.9895532734055</v>
@@ -6406,28 +6408,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R28" t="n">
-        <v>2224.911252462376</v>
+        <v>2179.773590518762</v>
       </c>
       <c r="S28" t="n">
-        <v>2054.776204981511</v>
+        <v>2179.773590518762</v>
       </c>
       <c r="T28" t="n">
-        <v>1811.43685720741</v>
+        <v>1936.434242744662</v>
       </c>
       <c r="U28" t="n">
-        <v>1811.43685720741</v>
+        <v>1936.434242744662</v>
       </c>
       <c r="V28" t="n">
-        <v>1529.725389815439</v>
+        <v>1654.722775352691</v>
       </c>
       <c r="W28" t="n">
-        <v>1254.872985987952</v>
+        <v>1379.870371525204</v>
       </c>
       <c r="X28" t="n">
-        <v>1012.309089433757</v>
+        <v>1137.306474971009</v>
       </c>
       <c r="Y28" t="n">
-        <v>785.9663211234994</v>
+        <v>910.9637066607511</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>988.0056192934842</v>
+        <v>1708.823959503263</v>
       </c>
       <c r="C29" t="n">
-        <v>561.1048893067843</v>
+        <v>1281.923229516563</v>
       </c>
       <c r="D29" t="n">
-        <v>137.8122684917846</v>
+        <v>895.5993467119897</v>
       </c>
       <c r="E29" t="n">
-        <v>44.49822504924753</v>
+        <v>469.6224068598473</v>
       </c>
       <c r="F29" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G29" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H29" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I29" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J29" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K29" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L29" t="n">
-        <v>44.49822504924753</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="M29" t="n">
-        <v>572.914647509062</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N29" t="n">
-        <v>1123.5801824935</v>
+        <v>1696.494830002561</v>
       </c>
       <c r="O29" t="n">
-        <v>1674.245717477938</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="P29" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="Q29" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R29" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S29" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="T29" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="U29" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="V29" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="W29" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="X29" t="n">
-        <v>1813.191253630124</v>
+        <v>1708.823959503263</v>
       </c>
       <c r="Y29" t="n">
-        <v>1407.853983585014</v>
+        <v>1708.823959503263</v>
       </c>
     </row>
     <row r="30">
@@ -6522,43 +6524,43 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D30" t="n">
-        <v>390.2758541134926</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E30" t="n">
-        <v>285.5739203864298</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F30" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G30" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H30" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I30" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J30" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K30" t="n">
-        <v>44.49822504924753</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="L30" t="n">
-        <v>44.49822504924753</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M30" t="n">
-        <v>595.1637600336857</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N30" t="n">
         <v>1145.829295018124</v>
       </c>
       <c r="O30" t="n">
-        <v>1696.494830002562</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="P30" t="n">
-        <v>1853.185855629757</v>
+        <v>1696.494830002561</v>
       </c>
       <c r="Q30" t="n">
         <v>1853.185855629757</v>
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>545.9957668907073</v>
+        <v>485.7509513926031</v>
       </c>
       <c r="C31" t="n">
-        <v>374.0232037696233</v>
+        <v>313.7783882715191</v>
       </c>
       <c r="D31" t="n">
-        <v>210.706430896394</v>
+        <v>313.7783882715191</v>
       </c>
       <c r="E31" t="n">
-        <v>44.49822504924753</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F31" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G31" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H31" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I31" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J31" t="n">
         <v>101.9895532734055</v>
@@ -6643,28 +6645,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R31" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S31" t="n">
-        <v>2007.737591668684</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T31" t="n">
-        <v>1764.398243894584</v>
+        <v>1981.571904688275</v>
       </c>
       <c r="U31" t="n">
-        <v>1484.213795394888</v>
+        <v>1701.38745618858</v>
       </c>
       <c r="V31" t="n">
-        <v>1479.920804294713</v>
+        <v>1419.675988796609</v>
       </c>
       <c r="W31" t="n">
-        <v>1205.068400467226</v>
+        <v>1144.823584969122</v>
       </c>
       <c r="X31" t="n">
-        <v>962.5045039130309</v>
+        <v>902.2596884149267</v>
       </c>
       <c r="Y31" t="n">
-        <v>736.161735602773</v>
+        <v>675.9169201046687</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1745.792697513689</v>
+        <v>1320.668515703089</v>
       </c>
       <c r="C32" t="n">
-        <v>1318.891967526989</v>
+        <v>893.7677857163897</v>
       </c>
       <c r="D32" t="n">
-        <v>895.5993467119897</v>
+        <v>470.47516490139</v>
       </c>
       <c r="E32" t="n">
-        <v>469.6224068598473</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="F32" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G32" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H32" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I32" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J32" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K32" t="n">
-        <v>572.914647509062</v>
+        <v>572.9146475090618</v>
       </c>
       <c r="L32" t="n">
         <v>1123.5801824935</v>
       </c>
       <c r="M32" t="n">
-        <v>1123.5801824935</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="N32" t="n">
-        <v>1123.5801824935</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="O32" t="n">
-        <v>1674.245717477938</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="P32" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="Q32" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R32" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S32" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T32" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U32" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V32" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="W32" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="X32" t="n">
-        <v>2165.64106180522</v>
+        <v>1813.191253630123</v>
       </c>
       <c r="Y32" t="n">
-        <v>2165.64106180522</v>
+        <v>1407.853983585013</v>
       </c>
     </row>
     <row r="33">
@@ -6759,37 +6761,37 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D33" t="n">
-        <v>390.2758541134926</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E33" t="n">
-        <v>285.5739203864298</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F33" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G33" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H33" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I33" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J33" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K33" t="n">
-        <v>44.49822504924753</v>
+        <v>201.1892506764434</v>
       </c>
       <c r="L33" t="n">
-        <v>595.1637600336857</v>
+        <v>751.8547856608814</v>
       </c>
       <c r="M33" t="n">
-        <v>1145.829295018124</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="N33" t="n">
-        <v>1696.494830002562</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="O33" t="n">
         <v>1853.185855629757</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1127.679347573485</v>
+        <v>268.5772905989112</v>
       </c>
       <c r="C34" t="n">
-        <v>955.7067844524009</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="D34" t="n">
-        <v>792.3900115791716</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="E34" t="n">
-        <v>626.1818057320252</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="F34" t="n">
-        <v>454.3200315065856</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G34" t="n">
-        <v>288.0630618008178</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H34" t="n">
-        <v>144.2667933089722</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I34" t="n">
-        <v>44.49822504924814</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J34" t="n">
-        <v>101.9895532734062</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K34" t="n">
-        <v>328.5171544792433</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L34" t="n">
-        <v>683.2064757736641</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M34" t="n">
-        <v>1074.392270743915</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N34" t="n">
-        <v>1451.883781619951</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O34" t="n">
-        <v>1807.311910299714</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P34" t="n">
-        <v>2097.911122221615</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q34" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R34" t="n">
-        <v>2224.911252462377</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S34" t="n">
-        <v>2224.911252462377</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T34" t="n">
-        <v>2224.911252462377</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U34" t="n">
-        <v>2224.911252462377</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V34" t="n">
-        <v>2061.60438497749</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W34" t="n">
-        <v>1786.751981150003</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="X34" t="n">
-        <v>1544.188084595809</v>
+        <v>685.0860276212348</v>
       </c>
       <c r="Y34" t="n">
-        <v>1317.845316285551</v>
+        <v>458.7432593109769</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1745.792697513689</v>
+        <v>1597.806787648507</v>
       </c>
       <c r="C35" t="n">
-        <v>1318.891967526989</v>
+        <v>1597.806787648507</v>
       </c>
       <c r="D35" t="n">
-        <v>895.5993467119897</v>
+        <v>1597.806787648507</v>
       </c>
       <c r="E35" t="n">
-        <v>469.6224068598473</v>
+        <v>1171.829847796364</v>
       </c>
       <c r="F35" t="n">
-        <v>44.49822504924753</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="G35" t="n">
-        <v>44.49822504924753</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H35" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I35" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J35" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K35" t="n">
-        <v>44.49822504924753</v>
+        <v>572.9146475090618</v>
       </c>
       <c r="L35" t="n">
-        <v>595.1637600336857</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="M35" t="n">
-        <v>1145.829295018124</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="N35" t="n">
-        <v>1696.494830002562</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="O35" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="P35" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="Q35" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R35" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S35" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T35" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U35" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V35" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="W35" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="X35" t="n">
-        <v>1813.191253630124</v>
+        <v>2003.144057693616</v>
       </c>
       <c r="Y35" t="n">
-        <v>1813.191253630124</v>
+        <v>1597.806787648507</v>
       </c>
     </row>
     <row r="36">
@@ -6996,40 +6998,40 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D36" t="n">
-        <v>390.2758541134926</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E36" t="n">
-        <v>285.5739203864298</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F36" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G36" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H36" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I36" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J36" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K36" t="n">
-        <v>595.1637600336857</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L36" t="n">
-        <v>595.1637600336857</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="M36" t="n">
-        <v>595.1637600336857</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="N36" t="n">
         <v>1145.829295018124</v>
       </c>
       <c r="O36" t="n">
-        <v>1302.520320645319</v>
+        <v>1696.494830002561</v>
       </c>
       <c r="P36" t="n">
         <v>1853.185855629757</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>388.3325623957717</v>
+        <v>454.3200315065847</v>
       </c>
       <c r="C37" t="n">
-        <v>216.3599992746877</v>
+        <v>454.3200315065847</v>
       </c>
       <c r="D37" t="n">
-        <v>216.3599992746877</v>
+        <v>454.3200315065847</v>
       </c>
       <c r="E37" t="n">
-        <v>216.3599992746877</v>
+        <v>454.3200315065847</v>
       </c>
       <c r="F37" t="n">
-        <v>44.49822504924814</v>
+        <v>454.3200315065847</v>
       </c>
       <c r="G37" t="n">
-        <v>44.49822504924814</v>
+        <v>288.0630618008169</v>
       </c>
       <c r="H37" t="n">
-        <v>44.49822504924814</v>
+        <v>144.2667933089713</v>
       </c>
       <c r="I37" t="n">
-        <v>44.49822504924814</v>
+        <v>44.49822504924723</v>
       </c>
       <c r="J37" t="n">
-        <v>101.9895532734062</v>
+        <v>101.9895532734052</v>
       </c>
       <c r="K37" t="n">
-        <v>328.5171544792433</v>
+        <v>328.5171544792424</v>
       </c>
       <c r="L37" t="n">
-        <v>683.2064757736641</v>
+        <v>683.2064757736632</v>
       </c>
       <c r="M37" t="n">
-        <v>1074.392270743915</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N37" t="n">
-        <v>1451.883781619951</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O37" t="n">
-        <v>1807.311910299714</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P37" t="n">
-        <v>2097.911122221615</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q37" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R37" t="n">
-        <v>2177.87263914955</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S37" t="n">
-        <v>2007.737591668685</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T37" t="n">
-        <v>1764.398243894585</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U37" t="n">
-        <v>1484.213795394889</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V37" t="n">
-        <v>1322.257599799777</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W37" t="n">
-        <v>1047.40519597229</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="X37" t="n">
-        <v>804.8412994180953</v>
+        <v>685.0860276212348</v>
       </c>
       <c r="Y37" t="n">
-        <v>578.4985311078374</v>
+        <v>458.7432593109769</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>467.5343491116287</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="C38" t="n">
-        <v>467.5343491116287</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="D38" t="n">
-        <v>44.49822504924753</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="E38" t="n">
-        <v>44.49822504924753</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="F38" t="n">
-        <v>44.49822504924753</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="G38" t="n">
-        <v>44.49822504924753</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H38" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I38" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J38" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K38" t="n">
-        <v>44.49822504924753</v>
+        <v>455.358312627159</v>
       </c>
       <c r="L38" t="n">
-        <v>572.914647509062</v>
+        <v>1006.023847611597</v>
       </c>
       <c r="M38" t="n">
-        <v>1123.5801824935</v>
+        <v>1006.023847611597</v>
       </c>
       <c r="N38" t="n">
-        <v>1674.245717477938</v>
+        <v>1556.689382596035</v>
       </c>
       <c r="O38" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="P38" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="Q38" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R38" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S38" t="n">
-        <v>2120.543958335517</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="T38" t="n">
-        <v>1899.61838738015</v>
+        <v>1899.618387380149</v>
       </c>
       <c r="U38" t="n">
-        <v>1641.263477976562</v>
+        <v>1641.263477976561</v>
       </c>
       <c r="V38" t="n">
-        <v>1283.774063102812</v>
+        <v>1283.774063102811</v>
       </c>
       <c r="W38" t="n">
-        <v>887.3827134031587</v>
+        <v>1159.423872452575</v>
       </c>
       <c r="X38" t="n">
-        <v>887.3827134031587</v>
+        <v>747.7038736203224</v>
       </c>
       <c r="Y38" t="n">
-        <v>887.3827134031587</v>
+        <v>342.3666035752127</v>
       </c>
     </row>
     <row r="39">
@@ -7233,43 +7235,43 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D39" t="n">
-        <v>390.2758541134926</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E39" t="n">
-        <v>285.5739203864298</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F39" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G39" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H39" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I39" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J39" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K39" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L39" t="n">
-        <v>201.1892506764427</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="M39" t="n">
-        <v>751.8547856608809</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N39" t="n">
-        <v>1302.520320645319</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O39" t="n">
-        <v>1853.185855629757</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="P39" t="n">
-        <v>1853.185855629757</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q39" t="n">
         <v>1853.185855629757</v>
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1127.679347573484</v>
+        <v>884.1145108219147</v>
       </c>
       <c r="C40" t="n">
-        <v>955.7067844524004</v>
+        <v>712.1419477008307</v>
       </c>
       <c r="D40" t="n">
-        <v>792.3900115791711</v>
+        <v>548.8251748276014</v>
       </c>
       <c r="E40" t="n">
-        <v>626.1818057320246</v>
+        <v>382.6169689804549</v>
       </c>
       <c r="F40" t="n">
-        <v>454.3200315065851</v>
+        <v>210.7551947550154</v>
       </c>
       <c r="G40" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H40" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I40" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J40" t="n">
         <v>101.9895532734055</v>
@@ -7354,28 +7356,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R40" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S40" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T40" t="n">
-        <v>2066.936429649699</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U40" t="n">
-        <v>1786.751981150003</v>
+        <v>2099.751015617891</v>
       </c>
       <c r="V40" t="n">
-        <v>1786.751981150003</v>
+        <v>1818.03954822592</v>
       </c>
       <c r="W40" t="n">
-        <v>1786.751981150003</v>
+        <v>1543.187144398433</v>
       </c>
       <c r="X40" t="n">
-        <v>1544.188084595808</v>
+        <v>1300.623247844238</v>
       </c>
       <c r="Y40" t="n">
-        <v>1317.84531628555</v>
+        <v>1074.28047953398</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>342.3666035752127</v>
+        <v>1357.396947955218</v>
       </c>
       <c r="C41" t="n">
-        <v>342.3666035752127</v>
+        <v>930.4962179685185</v>
       </c>
       <c r="D41" t="n">
-        <v>342.3666035752127</v>
+        <v>930.4962179685185</v>
       </c>
       <c r="E41" t="n">
-        <v>342.3666035752127</v>
+        <v>504.5192781163761</v>
       </c>
       <c r="F41" t="n">
-        <v>342.3666035752127</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="G41" t="n">
-        <v>342.3666035752127</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H41" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I41" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J41" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K41" t="n">
-        <v>595.1637600336857</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L41" t="n">
-        <v>595.1637600336857</v>
+        <v>572.9146475090616</v>
       </c>
       <c r="M41" t="n">
-        <v>595.1637600336857</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="N41" t="n">
-        <v>1145.829295018124</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="O41" t="n">
-        <v>1651.269438076291</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="P41" t="n">
-        <v>1651.269438076291</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="Q41" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R41" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S41" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="T41" t="n">
-        <v>2003.98568150701</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U41" t="n">
-        <v>1745.630772103422</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V41" t="n">
-        <v>1388.141357229671</v>
+        <v>1357.396947955218</v>
       </c>
       <c r="W41" t="n">
-        <v>991.7500075300184</v>
+        <v>1357.396947955218</v>
       </c>
       <c r="X41" t="n">
-        <v>762.2149678667428</v>
+        <v>1357.396947955218</v>
       </c>
       <c r="Y41" t="n">
-        <v>762.2149678667428</v>
+        <v>1357.396947955218</v>
       </c>
     </row>
     <row r="42">
@@ -7476,37 +7478,37 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F42" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G42" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693794</v>
       </c>
       <c r="H42" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I42" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J42" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K42" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L42" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="M42" t="n">
-        <v>44.49822504924753</v>
+        <v>595.1637600336855</v>
       </c>
       <c r="N42" t="n">
-        <v>595.1637600336857</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O42" t="n">
-        <v>1145.829295018124</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="P42" t="n">
-        <v>1696.494830002562</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q42" t="n">
         <v>1853.185855629757</v>
@@ -7543,37 +7545,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1127.679347573484</v>
+        <v>360.2670566621771</v>
       </c>
       <c r="C43" t="n">
-        <v>955.7067844524004</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="D43" t="n">
-        <v>792.3900115791711</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="E43" t="n">
-        <v>626.1818057320246</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="F43" t="n">
-        <v>454.3200315065851</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="G43" t="n">
-        <v>288.0630618008172</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="H43" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I43" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J43" t="n">
-        <v>101.9895532734055</v>
+        <v>101.9895532734058</v>
       </c>
       <c r="K43" t="n">
-        <v>328.5171544792427</v>
+        <v>328.5171544792429</v>
       </c>
       <c r="L43" t="n">
-        <v>683.2064757736634</v>
+        <v>683.2064757736637</v>
       </c>
       <c r="M43" t="n">
         <v>1074.392270743914</v>
@@ -7594,25 +7596,25 @@
         <v>2224.911252462376</v>
       </c>
       <c r="S43" t="n">
-        <v>2224.911252462376</v>
+        <v>2099.42735773195</v>
       </c>
       <c r="T43" t="n">
-        <v>1981.571904688275</v>
+        <v>1856.088009957849</v>
       </c>
       <c r="U43" t="n">
-        <v>1701.38745618858</v>
+        <v>1575.903561458154</v>
       </c>
       <c r="V43" t="n">
-        <v>1419.675988796609</v>
+        <v>1294.192094066183</v>
       </c>
       <c r="W43" t="n">
-        <v>1419.675988796609</v>
+        <v>1019.339690238696</v>
       </c>
       <c r="X43" t="n">
-        <v>1419.675988796609</v>
+        <v>776.7757936845007</v>
       </c>
       <c r="Y43" t="n">
-        <v>1193.333220486351</v>
+        <v>550.4330253742428</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>739.1194333973433</v>
+        <v>1357.396947955218</v>
       </c>
       <c r="C44" t="n">
-        <v>739.1194333973433</v>
+        <v>930.4962179685185</v>
       </c>
       <c r="D44" t="n">
-        <v>739.1194333973433</v>
+        <v>930.4962179685185</v>
       </c>
       <c r="E44" t="n">
-        <v>739.1194333973433</v>
+        <v>504.5192781163761</v>
       </c>
       <c r="F44" t="n">
-        <v>739.1194333973433</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="G44" t="n">
-        <v>334.7803709867919</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H44" t="n">
-        <v>36.91199246082674</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I44" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J44" t="n">
-        <v>399.5154512777223</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K44" t="n">
-        <v>399.5154512777223</v>
+        <v>957.7672188505811</v>
       </c>
       <c r="L44" t="n">
-        <v>856.3013579804531</v>
+        <v>957.7672188505811</v>
       </c>
       <c r="M44" t="n">
-        <v>1313.087264683184</v>
+        <v>957.7672188505811</v>
       </c>
       <c r="N44" t="n">
-        <v>1728.043288159434</v>
+        <v>957.7672188505811</v>
       </c>
       <c r="O44" t="n">
-        <v>1728.043288159434</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="P44" t="n">
-        <v>1728.043288159434</v>
+        <v>1768.825772958193</v>
       </c>
       <c r="Q44" t="n">
-        <v>1728.043288159434</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R44" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S44" t="n">
-        <v>1845.599623041337</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="T44" t="n">
-        <v>1624.67405208597</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U44" t="n">
-        <v>1624.67405208597</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V44" t="n">
-        <v>1624.67405208597</v>
+        <v>1357.396947955218</v>
       </c>
       <c r="W44" t="n">
-        <v>1624.67405208597</v>
+        <v>1357.396947955218</v>
       </c>
       <c r="X44" t="n">
-        <v>1212.954053253717</v>
+        <v>1357.396947955218</v>
       </c>
       <c r="Y44" t="n">
-        <v>807.6167832086077</v>
+        <v>1357.396947955218</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>604.0354834922822</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C45" t="n">
-        <v>486.529580009787</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D45" t="n">
-        <v>382.6896215250719</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E45" t="n">
-        <v>277.9876877980091</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F45" t="n">
-        <v>184.3418574809132</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G45" t="n">
-        <v>90.28808569851708</v>
+        <v>97.87431828693794</v>
       </c>
       <c r="H45" t="n">
-        <v>36.9119924608267</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I45" t="n">
-        <v>44.35863542273854</v>
+        <v>51.94486801115936</v>
       </c>
       <c r="J45" t="n">
-        <v>44.35863542273854</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K45" t="n">
-        <v>501.1445421254694</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L45" t="n">
-        <v>932.027809635875</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M45" t="n">
-        <v>1388.813716338606</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N45" t="n">
-        <v>1388.813716338606</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O45" t="n">
-        <v>1845.599623041337</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="P45" t="n">
-        <v>1845.599623041337</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q45" t="n">
-        <v>1845.599623041337</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R45" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S45" t="n">
-        <v>1764.275375602591</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T45" t="n">
-        <v>1622.39543990027</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U45" t="n">
-        <v>1437.627243819906</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V45" t="n">
-        <v>1232.654104959172</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W45" t="n">
-        <v>1036.13272779239</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X45" t="n">
-        <v>872.6553815590526</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y45" t="n">
-        <v>732.9624929123449</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1120.093114985063</v>
+        <v>388.3325623957711</v>
       </c>
       <c r="C46" t="n">
-        <v>948.1205518639796</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="D46" t="n">
-        <v>784.8037789907503</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E46" t="n">
-        <v>618.5955731436038</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F46" t="n">
-        <v>446.7337989181643</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G46" t="n">
-        <v>280.4768292123964</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H46" t="n">
-        <v>136.6805607205508</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I46" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J46" t="n">
-        <v>76.20565529896515</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K46" t="n">
-        <v>76.20565529896515</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L46" t="n">
-        <v>430.8949765933859</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M46" t="n">
-        <v>822.0807715636367</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N46" t="n">
-        <v>1199.572282439673</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O46" t="n">
-        <v>1555.000411119436</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P46" t="n">
-        <v>1845.599623041337</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q46" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R46" t="n">
-        <v>1798.56100972851</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S46" t="n">
-        <v>1628.425962247645</v>
+        <v>2127.492863465543</v>
       </c>
       <c r="T46" t="n">
-        <v>1628.425962247645</v>
+        <v>1884.153515691443</v>
       </c>
       <c r="U46" t="n">
-        <v>1628.425962247645</v>
+        <v>1603.969067191748</v>
       </c>
       <c r="V46" t="n">
-        <v>1628.425962247645</v>
+        <v>1322.257599799776</v>
       </c>
       <c r="W46" t="n">
-        <v>1628.425962247645</v>
+        <v>1047.405195972289</v>
       </c>
       <c r="X46" t="n">
-        <v>1536.601852007387</v>
+        <v>804.8412994180946</v>
       </c>
       <c r="Y46" t="n">
-        <v>1310.259083697129</v>
+        <v>578.4985311078367</v>
       </c>
     </row>
   </sheetData>
@@ -7979,19 +7981,19 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>35.76460079480934</v>
+        <v>569.5185628754298</v>
       </c>
       <c r="L2" t="n">
-        <v>453.322231905261</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>593.6590760150259</v>
+        <v>593.6590760150257</v>
       </c>
       <c r="N2" t="n">
-        <v>593.5074359500402</v>
+        <v>593.50743595004</v>
       </c>
       <c r="O2" t="n">
-        <v>593.6187724716183</v>
+        <v>593.6187724716181</v>
       </c>
       <c r="P2" t="n">
         <v>37.5753618102313</v>
@@ -8000,7 +8002,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R2" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8061,25 +8063,25 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>579.3245936279221</v>
+        <v>467.7026586628315</v>
       </c>
       <c r="N3" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291355</v>
       </c>
       <c r="O3" t="n">
-        <v>463.2315577343861</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8155,7 +8157,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
-        <v>152.9025226039392</v>
+        <v>152.9025226039383</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8216,22 +8218,22 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
-        <v>546.3101998434627</v>
+        <v>591.9924139104032</v>
       </c>
       <c r="L5" t="n">
-        <v>38.31204243262292</v>
+        <v>548.8576414812759</v>
       </c>
       <c r="M5" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150257</v>
       </c>
       <c r="N5" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
         <v>496.8170781441769</v>
@@ -8298,25 +8300,25 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298235</v>
       </c>
       <c r="M6" t="n">
-        <v>579.3245936279221</v>
+        <v>579.3245936279219</v>
       </c>
       <c r="N6" t="n">
-        <v>577.5708413291358</v>
+        <v>577.5708413291355</v>
       </c>
       <c r="O6" t="n">
-        <v>579.3997028378163</v>
+        <v>98.59786501766931</v>
       </c>
       <c r="P6" t="n">
-        <v>180.0446044646217</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R6" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8392,7 +8394,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q7" t="n">
-        <v>152.9025226039384</v>
+        <v>152.9025226039383</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8456,25 +8458,25 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>37.43126289943181</v>
+        <v>86.17533235500345</v>
       </c>
       <c r="N8" t="n">
-        <v>593.5074359500402</v>
+        <v>593.50743595004</v>
       </c>
       <c r="O8" t="n">
-        <v>204.8788014195786</v>
+        <v>593.6187724716181</v>
       </c>
       <c r="P8" t="n">
-        <v>593.8031749258255</v>
+        <v>593.8031749258253</v>
       </c>
       <c r="Q8" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R8" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8526,25 +8528,25 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>578.7428998298237</v>
+        <v>578.7428998298235</v>
       </c>
       <c r="M9" t="n">
-        <v>579.3245936279221</v>
+        <v>173.8486821944331</v>
       </c>
       <c r="N9" t="n">
-        <v>461.4026962257055</v>
+        <v>577.5708413291355</v>
       </c>
       <c r="O9" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378161</v>
       </c>
       <c r="P9" t="n">
         <v>21.77084120482866</v>
@@ -8687,22 +8689,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K11" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104032</v>
       </c>
       <c r="L11" t="n">
-        <v>205.7998844961774</v>
+        <v>453.3222319052608</v>
       </c>
       <c r="M11" t="n">
-        <v>593.6590760150259</v>
+        <v>593.6590760150257</v>
       </c>
       <c r="N11" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O11" t="n">
-        <v>593.6187724716183</v>
+        <v>593.6187724716181</v>
       </c>
       <c r="P11" t="n">
         <v>37.5753618102313</v>
@@ -8711,7 +8713,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R11" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8763,28 +8765,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J12" t="n">
-        <v>175.9092261537768</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>23.09678051232798</v>
+        <v>185.9167539104606</v>
       </c>
       <c r="N12" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291355</v>
       </c>
       <c r="O12" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378161</v>
       </c>
       <c r="P12" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
         <v>491.5808533018869</v>
@@ -8866,7 +8868,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q13" t="n">
-        <v>152.9025226039392</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8930,16 +8932,16 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L14" t="n">
-        <v>594.539855548217</v>
+        <v>594.5398555482168</v>
       </c>
       <c r="M14" t="n">
-        <v>593.6590760150259</v>
+        <v>571.1852249800522</v>
       </c>
       <c r="N14" t="n">
-        <v>593.5074359500402</v>
+        <v>593.50743595004</v>
       </c>
       <c r="O14" t="n">
-        <v>452.4011488286621</v>
+        <v>593.6187724716181</v>
       </c>
       <c r="P14" t="n">
         <v>37.5753618102313</v>
@@ -8948,7 +8950,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R14" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9009,19 +9011,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
-        <v>22.51508671422956</v>
+        <v>180.7888499740234</v>
       </c>
       <c r="M15" t="n">
-        <v>579.3245936279221</v>
+        <v>579.3245936279219</v>
       </c>
       <c r="N15" t="n">
-        <v>577.5708413291358</v>
+        <v>577.5708413291355</v>
       </c>
       <c r="O15" t="n">
-        <v>579.3997028378163</v>
+        <v>579.3997028378161</v>
       </c>
       <c r="P15" t="n">
-        <v>180.0446044646217</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q15" t="n">
         <v>22.7470382889785</v>
@@ -9103,7 +9105,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q16" t="n">
-        <v>152.9025226039384</v>
+        <v>152.9025226039383</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9164,25 +9166,25 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K17" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104032</v>
       </c>
       <c r="L17" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M17" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N17" t="n">
-        <v>110.3411813754879</v>
+        <v>593.50743595004</v>
       </c>
       <c r="O17" t="n">
-        <v>593.6187724716183</v>
+        <v>593.6187724716181</v>
       </c>
       <c r="P17" t="n">
-        <v>593.8031749258255</v>
+        <v>571.3293238908516</v>
       </c>
       <c r="Q17" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R17" t="n">
         <v>35.03264989479647</v>
@@ -9246,19 +9248,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>579.3245936279221</v>
+        <v>579.3245936279219</v>
       </c>
       <c r="N18" t="n">
-        <v>179.616791473335</v>
+        <v>577.5708413291355</v>
       </c>
       <c r="O18" t="n">
-        <v>579.3997028378163</v>
+        <v>181.4456529820162</v>
       </c>
       <c r="P18" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204226</v>
       </c>
       <c r="Q18" t="n">
         <v>22.7470382889785</v>
@@ -9404,22 +9406,22 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L20" t="n">
-        <v>202.3700777287119</v>
+        <v>594.5398555482168</v>
       </c>
       <c r="M20" t="n">
-        <v>688.4869833702859</v>
+        <v>571.1852249800522</v>
       </c>
       <c r="N20" t="n">
-        <v>688.3353433053002</v>
+        <v>593.50743595004</v>
       </c>
       <c r="O20" t="n">
-        <v>688.4466798268782</v>
+        <v>593.6187724716181</v>
       </c>
       <c r="P20" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q20" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R20" t="n">
         <v>35.03264989479647</v>
@@ -9483,16 +9485,16 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L21" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298235</v>
       </c>
       <c r="M21" t="n">
-        <v>674.1525009831821</v>
+        <v>579.3245936279219</v>
       </c>
       <c r="N21" t="n">
-        <v>672.3987486843957</v>
+        <v>577.5708413291355</v>
       </c>
       <c r="O21" t="n">
-        <v>548.017651387089</v>
+        <v>181.445652982016</v>
       </c>
       <c r="P21" t="n">
         <v>21.77084120482866</v>
@@ -9641,19 +9643,19 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L23" t="n">
-        <v>873.5291794141976</v>
+        <v>594.5398555482169</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>571.1852249800521</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>593.5074359500401</v>
       </c>
       <c r="O23" t="n">
-        <v>891.0724241548241</v>
+        <v>593.6187724716181</v>
       </c>
       <c r="P23" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q23" t="n">
         <v>36.12467460459804</v>
@@ -9720,19 +9722,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L24" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>1004.802661823039</v>
+        <v>579.324593627922</v>
       </c>
       <c r="N24" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291356</v>
       </c>
       <c r="O24" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378162</v>
       </c>
       <c r="P24" t="n">
-        <v>21.77084120482866</v>
+        <v>180.0446044646222</v>
       </c>
       <c r="Q24" t="n">
         <v>22.7470382889785</v>
@@ -9875,28 +9877,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K26" t="n">
-        <v>591.9924139104035</v>
+        <v>591.9924139104032</v>
       </c>
       <c r="L26" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M26" t="n">
-        <v>37.43126289943181</v>
+        <v>452.4414523720697</v>
       </c>
       <c r="N26" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O26" t="n">
-        <v>571.1449214366446</v>
+        <v>593.6187724716181</v>
       </c>
       <c r="P26" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258253</v>
       </c>
       <c r="Q26" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9960,22 +9962,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>577.5708413291358</v>
+        <v>577.5708413291355</v>
       </c>
       <c r="O27" t="n">
-        <v>579.3997028378163</v>
+        <v>579.3997028378161</v>
       </c>
       <c r="P27" t="n">
-        <v>180.0446044646217</v>
+        <v>577.9986543204226</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>98.17301358442559</v>
       </c>
       <c r="R27" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10115,25 +10117,25 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L29" t="n">
-        <v>38.31204243262292</v>
+        <v>594.5398555482168</v>
       </c>
       <c r="M29" t="n">
-        <v>571.1852249800525</v>
+        <v>593.6590760150257</v>
       </c>
       <c r="N29" t="n">
-        <v>593.5074359500402</v>
+        <v>593.50743595004</v>
       </c>
       <c r="O29" t="n">
-        <v>593.6187724716183</v>
+        <v>452.4011488286619</v>
       </c>
       <c r="P29" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q29" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10191,25 +10193,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489273</v>
       </c>
       <c r="L30" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298235</v>
       </c>
       <c r="M30" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>180.0446044646217</v>
+        <v>577.9986543204226</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>181.0208015487723</v>
       </c>
       <c r="R30" t="n">
         <v>23.67291939414415</v>
@@ -10349,22 +10351,22 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K32" t="n">
-        <v>569.51856287543</v>
+        <v>569.5185628754298</v>
       </c>
       <c r="L32" t="n">
-        <v>594.539855548217</v>
+        <v>594.5398555482168</v>
       </c>
       <c r="M32" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150257</v>
       </c>
       <c r="N32" t="n">
-        <v>37.27962283444602</v>
+        <v>593.50743595004</v>
       </c>
       <c r="O32" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P32" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q32" t="n">
         <v>36.12467460459804</v>
@@ -10428,19 +10430,19 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>180.6729970931272</v>
       </c>
       <c r="L33" t="n">
-        <v>578.7428998298237</v>
+        <v>578.7428998298235</v>
       </c>
       <c r="M33" t="n">
-        <v>579.3245936279221</v>
+        <v>579.3245936279219</v>
       </c>
       <c r="N33" t="n">
-        <v>577.5708413291358</v>
+        <v>577.5708413291355</v>
       </c>
       <c r="O33" t="n">
-        <v>181.4456529820153</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
         <v>21.77084120482866</v>
@@ -10583,22 +10585,22 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
-        <v>35.76460079480934</v>
+        <v>203.2524428583636</v>
       </c>
       <c r="L35" t="n">
-        <v>594.539855548217</v>
+        <v>594.5398555482168</v>
       </c>
       <c r="M35" t="n">
-        <v>593.6590760150259</v>
+        <v>593.6590760150257</v>
       </c>
       <c r="N35" t="n">
-        <v>593.5074359500402</v>
+        <v>593.50743595004</v>
       </c>
       <c r="O35" t="n">
-        <v>571.1449214366446</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P35" t="n">
         <v>37.5753618102313</v>
@@ -10665,22 +10667,22 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K36" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L36" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279219</v>
       </c>
       <c r="N36" t="n">
-        <v>577.5708413291358</v>
+        <v>577.5708413291355</v>
       </c>
       <c r="O36" t="n">
-        <v>181.4456529820153</v>
+        <v>579.3997028378161</v>
       </c>
       <c r="P36" t="n">
-        <v>577.9986543204228</v>
+        <v>180.0446044646224</v>
       </c>
       <c r="Q36" t="n">
         <v>22.7470382889785</v>
@@ -10823,19 +10825,19 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K38" t="n">
-        <v>35.76460079480934</v>
+        <v>450.7747902674471</v>
       </c>
       <c r="L38" t="n">
-        <v>572.0660045132436</v>
+        <v>594.5398555482168</v>
       </c>
       <c r="M38" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N38" t="n">
-        <v>593.5074359500402</v>
+        <v>593.50743595004</v>
       </c>
       <c r="O38" t="n">
-        <v>593.6187724716183</v>
+        <v>593.6187724716181</v>
       </c>
       <c r="P38" t="n">
         <v>37.5753618102313</v>
@@ -10844,7 +10846,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R38" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10905,22 +10907,22 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L39" t="n">
-        <v>180.7888499740227</v>
+        <v>578.7428998298235</v>
       </c>
       <c r="M39" t="n">
-        <v>579.3245936279221</v>
+        <v>579.3245936279219</v>
       </c>
       <c r="N39" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>579.3997028378163</v>
+        <v>268.8396510847015</v>
       </c>
       <c r="P39" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
         <v>23.67291939414415</v>
@@ -11060,28 +11062,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K41" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L41" t="n">
-        <v>38.31204243262292</v>
+        <v>572.0660045132432</v>
       </c>
       <c r="M41" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150258</v>
       </c>
       <c r="N41" t="n">
-        <v>593.5074359500402</v>
+        <v>593.5074359500401</v>
       </c>
       <c r="O41" t="n">
-        <v>547.9365584046774</v>
+        <v>593.6187724716181</v>
       </c>
       <c r="P41" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q41" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R41" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11145,19 +11147,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>23.09678051232798</v>
+        <v>579.324593627922</v>
       </c>
       <c r="N42" t="n">
-        <v>577.5708413291358</v>
+        <v>577.5708413291356</v>
       </c>
       <c r="O42" t="n">
-        <v>579.3997028378163</v>
+        <v>579.3997028378162</v>
       </c>
       <c r="P42" t="n">
-        <v>577.9986543204228</v>
+        <v>180.0446044646222</v>
       </c>
       <c r="Q42" t="n">
-        <v>181.0208015487716</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R42" t="n">
         <v>23.67291939414415</v>
@@ -11297,28 +11299,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104033</v>
       </c>
       <c r="L44" t="n">
-        <v>499.7119481929572</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M44" t="n">
-        <v>498.831168659766</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
-        <v>456.4271212953049</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O44" t="n">
-        <v>37.3909593560241</v>
+        <v>300.4142109955938</v>
       </c>
       <c r="P44" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258253</v>
       </c>
       <c r="Q44" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,31 +11375,31 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>483.7991395936675</v>
+        <v>578.6270469489274</v>
       </c>
       <c r="L45" t="n">
-        <v>457.7507104621139</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>484.4966862726622</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>484.5717954825564</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>458.854857777643</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11452,10 +11454,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>60.327324507274</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K46" t="n">
-        <v>20.964654452712</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L46" t="n">
         <v>380.1908016072373</v>
@@ -11473,7 +11475,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22547,25 +22549,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>422.6317226868329</v>
+        <v>146.7686853466648</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
-        <v>227.990784524734</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,7 +22600,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>255.7713603095518</v>
@@ -22610,10 +22612,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -22705,13 +22707,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
         <v>170.1431564831852</v>
@@ -22720,7 +22722,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -22750,13 +22752,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -22768,10 +22770,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>162.3008231376312</v>
       </c>
       <c r="Y4" t="n">
-        <v>104.6146881266988</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22784,13 +22786,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -22799,10 +22801,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
-        <v>237.9553874289896</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22844,7 +22846,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>301.8597785801899</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -22942,13 +22944,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>59.64236734312308</v>
       </c>
       <c r="F7" t="n">
         <v>170.1431564831852</v>
@@ -22960,7 +22962,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>41.47873147163469</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22987,10 +22989,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -23018,25 +23020,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>329.3362674455093</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>281.602663049274</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>34.5479025439635</v>
@@ -23069,25 +23071,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -23182,22 +23184,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>110.0981677402031</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23224,19 +23226,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -23261,19 +23263,19 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>329.3362674455102</v>
       </c>
       <c r="F11" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
         <v>34.5479025439635</v>
@@ -23315,16 +23317,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>136.3753922925447</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23416,19 +23418,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>110.0981677402031</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
         <v>142.3583058069271</v>
@@ -23461,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>53.9839298619591</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23492,16 +23494,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>329.3362674455093</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
         <v>420.8729399924937</v>
@@ -23510,10 +23512,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>325.2164753450609</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -23656,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>63.52994056050457</v>
+        <v>110.0981677402031</v>
       </c>
       <c r="E16" t="n">
         <v>164.546123788675</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23729,22 +23731,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486147</v>
+        <v>212.5653084123222</v>
       </c>
       <c r="C17" t="n">
-        <v>325.7028656473864</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>294.8896947407055</v>
@@ -23789,7 +23791,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23798,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23890,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>71.98949189919274</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23947,16 +23949,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>12.8063191292124</v>
       </c>
     </row>
     <row r="20">
@@ -23966,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>382.2010645737101</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24020,22 +24022,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T20" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>193.2379017598111</v>
       </c>
     </row>
     <row r="21">
@@ -24124,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.5947729757257</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24172,22 +24174,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>6.759898196019492</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24203,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24218,10 +24220,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>379.6095992620578</v>
       </c>
       <c r="H23" t="n">
-        <v>33.12763375382633</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>34.5479025439635</v>
@@ -24254,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="24">
@@ -24364,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>90.77286840263264</v>
+        <v>47.18544517283236</v>
       </c>
       <c r="D25" t="n">
         <v>161.683605144497</v>
@@ -24379,10 +24381,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24452,7 +24454,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>348.9253100933446</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>400.2956717864458</v>
@@ -24506,10 +24508,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
-        <v>401.2838973446586</v>
+        <v>342.6064085940741</v>
       </c>
     </row>
     <row r="27">
@@ -24604,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>120.836616817666</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24613,7 +24615,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>142.3583058069271</v>
@@ -24646,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>1.881941855521028</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24677,19 +24679,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>36.59905063032176</v>
       </c>
       <c r="E29" t="n">
-        <v>329.3362674455093</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>400.2956717864458</v>
@@ -24728,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>218.7163152458132</v>
@@ -24746,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="30">
@@ -24841,13 +24843,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>68.10191868181126</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>164.5944000087102</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>274.6442915288779</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24914,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>329.3362674455101</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24926,7 +24928,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
         <v>400.2956717864458</v>
@@ -24980,10 +24982,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>348.9253100933448</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25078,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>110.0981677402031</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>117.2205539080138</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25151,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>348.9253100933445</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25166,10 +25168,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>34.5479025439635</v>
@@ -25217,10 +25219,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>188.0532760228583</v>
       </c>
       <c r="Y35" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25309,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>183.8853134985967</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
         <v>161.683605144497</v>
@@ -25321,16 +25323,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25369,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>118.5577190788908</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25388,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
-        <v>0.2539317850923908</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
         <v>421.717170453621</v>
@@ -25406,7 +25408,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H38" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>34.5479025439635</v>
@@ -25451,13 +25453,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>269.3207474589231</v>
       </c>
       <c r="X38" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25564,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,22 +25596,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>131.0791068915074</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>153.473969538659</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25625,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25685,13 +25687,13 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>72.88665600388288</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>180.3631095772874</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
         <v>401.2838973446586</v>
@@ -25783,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>123.2669748412074</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25836,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>44.20464122293424</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25846,10 +25848,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25862,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>347.837504335463</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>72.88665600388288</v>
       </c>
       <c r="W44" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -26026,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>149.2323884507977</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>483280.9067808174</v>
+        <v>483280.9067808173</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>483280.9067808174</v>
+        <v>483280.9067808173</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>483280.9067808174</v>
+        <v>483280.9067808173</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>483280.9067808174</v>
+        <v>483280.9067808173</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>483280.9067808174</v>
+        <v>483280.9067808173</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>525068.6785999745</v>
+        <v>483280.9067808173</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>728393.5701538959</v>
+        <v>483280.9067808173</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>483280.9067808174</v>
+        <v>483280.9067808173</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>483280.9067808174</v>
+        <v>483280.9067808173</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>483280.9067808174</v>
+        <v>483280.9067808173</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>483280.9067808174</v>
+        <v>483280.9067808171</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>483280.9067808174</v>
+        <v>483280.9067808173</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>483280.9067808174</v>
+        <v>483280.9067808173</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>428893.8067749793</v>
+        <v>483280.9067808173</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>135529.7532061196</v>
+        <v>135529.7532061195</v>
       </c>
       <c r="C2" t="n">
         <v>135529.7532061195</v>
@@ -26320,19 +26322,19 @@
         <v>135529.7532061195</v>
       </c>
       <c r="E2" t="n">
-        <v>135529.7532061196</v>
+        <v>135529.7532061195</v>
       </c>
       <c r="F2" t="n">
-        <v>135529.7532061196</v>
+        <v>135529.7532061195</v>
       </c>
       <c r="G2" t="n">
-        <v>135529.7532061196</v>
+        <v>135529.7532061195</v>
       </c>
       <c r="H2" t="n">
-        <v>147247.1324749186</v>
+        <v>135529.7532061195</v>
       </c>
       <c r="I2" t="n">
-        <v>204259.8604910253</v>
+        <v>135529.7532061195</v>
       </c>
       <c r="J2" t="n">
         <v>135529.7532061195</v>
@@ -26341,19 +26343,19 @@
         <v>135529.7532061195</v>
       </c>
       <c r="L2" t="n">
-        <v>135529.7532061196</v>
+        <v>135529.7532061195</v>
       </c>
       <c r="M2" t="n">
-        <v>135529.7532061196</v>
+        <v>135529.7532061195</v>
       </c>
       <c r="N2" t="n">
-        <v>135529.7532061196</v>
+        <v>135529.7532061195</v>
       </c>
       <c r="O2" t="n">
-        <v>135529.7532061196</v>
+        <v>135529.7532061195</v>
       </c>
       <c r="P2" t="n">
-        <v>120279.4957658233</v>
+        <v>135529.7532061195</v>
       </c>
     </row>
     <row r="3">
@@ -26381,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>25585.42285561533</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>122695.9243396938</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>145533.6699348164</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>26326.44296043126</v>
+      </c>
+      <c r="C4" t="n">
+        <v>26326.44296043126</v>
+      </c>
+      <c r="D4" t="n">
+        <v>26326.44296043126</v>
+      </c>
+      <c r="E4" t="n">
+        <v>26326.44296043126</v>
+      </c>
+      <c r="F4" t="n">
+        <v>26326.44296043126</v>
+      </c>
+      <c r="G4" t="n">
         <v>26326.44296043127</v>
       </c>
-      <c r="C4" t="n">
+      <c r="H4" t="n">
         <v>26326.44296043127</v>
       </c>
-      <c r="D4" t="n">
-        <v>26326.44296043128</v>
-      </c>
-      <c r="E4" t="n">
-        <v>26326.44296043127</v>
-      </c>
-      <c r="F4" t="n">
-        <v>26326.44296043127</v>
-      </c>
-      <c r="G4" t="n">
-        <v>26326.44296043128</v>
-      </c>
-      <c r="H4" t="n">
-        <v>28612.89208313081</v>
-      </c>
       <c r="I4" t="n">
-        <v>39737.9652726833</v>
+        <v>26326.44296043126</v>
       </c>
       <c r="J4" t="n">
-        <v>26326.44296043127</v>
+        <v>26326.44296043126</v>
       </c>
       <c r="K4" t="n">
-        <v>26326.44296043127</v>
+        <v>26326.44296043126</v>
       </c>
       <c r="L4" t="n">
         <v>26326.44296043127</v>
       </c>
       <c r="M4" t="n">
+        <v>26326.44296043126</v>
+      </c>
+      <c r="N4" t="n">
+        <v>26326.44296043126</v>
+      </c>
+      <c r="O4" t="n">
+        <v>26326.44296043126</v>
+      </c>
+      <c r="P4" t="n">
         <v>26326.44296043127</v>
-      </c>
-      <c r="N4" t="n">
-        <v>26326.44296043127</v>
-      </c>
-      <c r="O4" t="n">
-        <v>26326.44296043127</v>
-      </c>
-      <c r="P4" t="n">
-        <v>23350.61219269669</v>
       </c>
     </row>
     <row r="5">
@@ -26467,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>67446.25103742813</v>
+        <v>67446.2510374281</v>
       </c>
       <c r="C5" t="n">
-        <v>67446.25103742813</v>
+        <v>67446.2510374281</v>
       </c>
       <c r="D5" t="n">
-        <v>67446.25103742813</v>
+        <v>67446.2510374281</v>
       </c>
       <c r="E5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="F5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="G5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="H5" t="n">
-        <v>39584.18780462793</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="I5" t="n">
-        <v>67637.30207485624</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="J5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="K5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="L5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="M5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="N5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="O5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="P5" t="n">
-        <v>28053.11427022832</v>
+        <v>33818.65103742811</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-144647.6742064771</v>
+        <v>-144647.674206477</v>
       </c>
       <c r="C6" t="n">
-        <v>41757.05920826012</v>
+        <v>41757.05920826014</v>
       </c>
       <c r="D6" t="n">
-        <v>41757.05920826012</v>
+        <v>41757.05920826017</v>
       </c>
       <c r="E6" t="n">
-        <v>75384.65920826016</v>
+        <v>75384.65920826013</v>
       </c>
       <c r="F6" t="n">
         <v>75384.65920826016</v>
       </c>
       <c r="G6" t="n">
+        <v>75384.65920826013</v>
+      </c>
+      <c r="H6" t="n">
         <v>75384.65920826016</v>
       </c>
-      <c r="H6" t="n">
-        <v>53464.62973154456</v>
-      </c>
       <c r="I6" t="n">
-        <v>-25811.33119620803</v>
+        <v>75384.65920826016</v>
       </c>
       <c r="J6" t="n">
+        <v>-70149.01072655633</v>
+      </c>
+      <c r="K6" t="n">
+        <v>75384.6592082601</v>
+      </c>
+      <c r="L6" t="n">
         <v>75384.65920826013</v>
       </c>
-      <c r="K6" t="n">
-        <v>75384.65920826013</v>
-      </c>
-      <c r="L6" t="n">
-        <v>75384.65920826016</v>
-      </c>
       <c r="M6" t="n">
-        <v>75384.65920826016</v>
+        <v>75384.6592082601</v>
       </c>
       <c r="N6" t="n">
-        <v>75384.65920826019</v>
+        <v>75384.6592082601</v>
       </c>
       <c r="O6" t="n">
         <v>75384.65920826016</v>
       </c>
       <c r="P6" t="n">
-        <v>68875.76930289829</v>
+        <v>75384.65920826014</v>
       </c>
     </row>
   </sheetData>
@@ -26787,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="C4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="D4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="E4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="F4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="G4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="H4" t="n">
-        <v>651.0557204708541</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="I4" t="n">
-        <v>1112.455626231188</v>
+        <v>556.227813115594</v>
       </c>
       <c r="J4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="K4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="L4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="P4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.227813115594</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27027,13 +27029,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>94.82790735525992</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>556.2278131155938</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>94.82790735525992</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34699,19 +34701,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>533.7539620806205</v>
       </c>
       <c r="L2" t="n">
-        <v>415.010189472638</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N2" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O2" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -34720,7 +34722,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34781,25 +34783,25 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>556.2278131155941</v>
+        <v>444.6058781505035</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O3" t="n">
-        <v>440.0596680121639</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34875,7 +34877,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
-        <v>128.2829598391542</v>
+        <v>128.2829598391533</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34936,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>510.5455990486533</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>510.5455990486529</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>460.6924035395789</v>
@@ -35018,25 +35020,25 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M6" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N6" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O6" t="n">
-        <v>556.2278131155941</v>
+        <v>75.42597529544709</v>
       </c>
       <c r="P6" t="n">
-        <v>158.2737632597931</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35112,7 +35114,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q7" t="n">
-        <v>128.2829598391535</v>
+        <v>128.2829598391533</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35176,25 +35178,25 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>48.74406945557163</v>
       </c>
       <c r="N8" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O8" t="n">
-        <v>167.4878420635545</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P8" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35246,25 +35248,25 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M9" t="n">
-        <v>556.2278131155941</v>
+        <v>150.7519016821051</v>
       </c>
       <c r="N9" t="n">
-        <v>440.0596680121639</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35407,22 +35409,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="L11" t="n">
-        <v>167.4878420635545</v>
+        <v>415.0101894726379</v>
       </c>
       <c r="M11" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N11" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -35431,7 +35433,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,28 +35485,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>155.2981118204434</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>162.8199733981326</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P12" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>468.8338150129084</v>
@@ -35586,7 +35588,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q13" t="n">
-        <v>128.2829598391542</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35650,16 +35652,16 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M14" t="n">
-        <v>556.2278131155941</v>
+        <v>533.7539620806205</v>
       </c>
       <c r="N14" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O14" t="n">
-        <v>415.010189472638</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -35668,7 +35670,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,19 +35731,19 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>158.2737632597938</v>
       </c>
       <c r="M15" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N15" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O15" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P15" t="n">
-        <v>158.2737632597931</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35823,7 +35825,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q16" t="n">
-        <v>128.2829598391535</v>
+        <v>128.2829598391533</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,25 +35886,25 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>73.0615585410419</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O17" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P17" t="n">
-        <v>556.2278131155941</v>
+        <v>533.7539620806203</v>
       </c>
       <c r="Q17" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35966,19 +35968,19 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N18" t="n">
-        <v>158.2737632597933</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O18" t="n">
-        <v>556.2278131155941</v>
+        <v>158.273763259794</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36124,22 +36126,22 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>164.058035296089</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M20" t="n">
-        <v>651.0557204708541</v>
+        <v>533.7539620806205</v>
       </c>
       <c r="N20" t="n">
-        <v>651.0557204708541</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O20" t="n">
-        <v>651.0557204708541</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36203,16 +36205,16 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M21" t="n">
-        <v>651.0557204708541</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N21" t="n">
-        <v>651.0557204708541</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O21" t="n">
-        <v>524.8457616648668</v>
+        <v>158.2737632597938</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36361,19 +36363,19 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>835.2171369815748</v>
+        <v>556.227813115594</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>533.7539620806203</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>556.227813115594</v>
       </c>
       <c r="O23" t="n">
-        <v>853.6814647988001</v>
+        <v>556.227813115594</v>
       </c>
       <c r="P23" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36440,19 +36442,19 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>981.7058813107108</v>
+        <v>556.227813115594</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>158.2737632597935</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36595,28 +36597,28 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="L26" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>415.0101894726379</v>
       </c>
       <c r="N26" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>533.7539620806206</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,22 +36682,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O27" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P27" t="n">
-        <v>158.2737632597931</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>75.42597529544709</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36835,25 +36837,25 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M29" t="n">
-        <v>533.7539620806207</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N29" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O29" t="n">
-        <v>556.2278131155941</v>
+        <v>415.0101894726378</v>
       </c>
       <c r="P29" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,25 +36913,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M30" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>158.2737632597931</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>158.2737632597938</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37069,22 +37071,22 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>533.7539620806207</v>
+        <v>533.7539620806205</v>
       </c>
       <c r="L32" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O32" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37148,19 +37150,19 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>158.2737632597938</v>
       </c>
       <c r="L33" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M33" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N33" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O33" t="n">
-        <v>158.2737632597931</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37303,22 +37305,22 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>167.4878420635542</v>
       </c>
       <c r="L35" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M35" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N35" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O35" t="n">
-        <v>533.7539620806206</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -37385,22 +37387,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N36" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O36" t="n">
-        <v>158.2737632597931</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P36" t="n">
-        <v>556.2278131155941</v>
+        <v>158.2737632597938</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37543,19 +37545,19 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>415.0101894726378</v>
       </c>
       <c r="L38" t="n">
-        <v>533.7539620806207</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M38" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O38" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -37564,7 +37566,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,22 +37627,22 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>158.2737632597931</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M39" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N39" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>556.2278131155941</v>
+        <v>245.6677613624792</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37780,28 +37782,28 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>533.7539620806203</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="N41" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="O41" t="n">
-        <v>510.5455990486533</v>
+        <v>556.227813115594</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,19 +37867,19 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="N42" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="O42" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="P42" t="n">
-        <v>556.2278131155941</v>
+        <v>158.2737632597935</v>
       </c>
       <c r="Q42" t="n">
-        <v>158.2737632597931</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38017,28 +38019,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="L44" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>419.1474984608589</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>263.0232516395697</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38095,31 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>461.3999057603342</v>
+        <v>556.227813115594</v>
       </c>
       <c r="L45" t="n">
-        <v>435.2356237478844</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>39.69056852337214</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L46" t="n">
         <v>358.2720417115361</v>
@@ -38193,7 +38195,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_3_16.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_3_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>288367.4100138412</v>
+        <v>283207.0174681923</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9135685.687344907</v>
+        <v>9135685.687344899</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5588236.534564998</v>
+        <v>5588236.534564999</v>
       </c>
     </row>
     <row r="11">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>275.863037340168</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>421.717170453621</v>
+        <v>130.4138158012187</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -825,19 +825,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>96.4329802763898</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
         <v>168.4336970060565</v>
@@ -876,13 +876,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>77.83743445102169</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>224.0793406271554</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
         <v>420.8729399924937</v>
@@ -913,10 +913,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>90.56765762246668</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>407.6027988439302</v>
+        <v>41.56615092894</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>23.16237202978931</v>
       </c>
       <c r="E7" t="n">
-        <v>104.9037564455519</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
         <v>240.905954296359</v>
@@ -1144,16 +1144,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>420.8729399924937</v>
+        <v>246.7924050473717</v>
       </c>
       <c r="G8" t="n">
-        <v>118.6930087371719</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>353.914520725013</v>
@@ -1198,10 +1198,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -1296,22 +1296,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>98.15366458399242</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
@@ -1378,10 +1378,10 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>92.38090300811082</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>32.17666801130665</v>
       </c>
     </row>
     <row r="12">
@@ -1533,16 +1533,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>51.58543740429393</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>96.44420510686369</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>240.905954296359</v>
@@ -1609,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1621,13 +1621,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>82.51141740594159</v>
       </c>
       <c r="T14" t="n">
         <v>218.7163152458132</v>
@@ -1666,16 +1666,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>82.38632349886929</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -1770,19 +1770,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>51.58543740429393</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>220.1281869991946</v>
       </c>
       <c r="U16" t="n">
         <v>277.3826040146988</v>
@@ -1830,7 +1830,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>224.0793406271554</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>203.0845722362925</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1855,13 +1855,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>242.5938981288117</v>
       </c>
       <c r="G17" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1897,10 +1897,10 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V17" t="n">
         <v>353.914520725013</v>
@@ -1909,10 +1909,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2007,22 +2007,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
@@ -2061,16 +2061,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>211.273021497943</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2083,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>62.53345854974148</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2137,7 +2137,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U20" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>353.914520725013</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>208.0459955848474</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="21">
@@ -2244,22 +2244,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,19 +2289,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>265.3439815931926</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
         <v>240.1382575886529</v>
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>20.68607252438809</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2374,13 +2374,13 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U23" t="n">
-        <v>255.7713603095518</v>
+        <v>187.7147787958515</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2478,7 +2478,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>123.0673923170408</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>98.15366458399242</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>168.4336970060565</v>
@@ -2557,19 +2557,19 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>2.346502835825152</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
-        <v>58.67748875058447</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="27">
@@ -2721,13 +2721,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>96.44420510686369</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>44.68628532417755</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
@@ -2791,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>176.8534835424591</v>
       </c>
       <c r="C29" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
-        <v>382.4606439765279</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="30">
@@ -2958,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>96.44420510686372</v>
+        <v>96.44420510686369</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
@@ -3028,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>86.31361320310459</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>19.15951198673101</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3192,13 +3192,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>51.58543740429393</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
@@ -3274,10 +3274,10 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>400.2956717864458</v>
@@ -3319,22 +3319,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>219.5495228210719</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>401.2838973446586</v>
+        <v>242.5938981288117</v>
       </c>
     </row>
     <row r="36">
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4.378995526348262</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3435,16 +3435,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T37" t="n">
         <v>240.905954296359</v>
@@ -3517,7 +3517,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H38" t="n">
         <v>294.8896947407055</v>
@@ -3553,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>123.1066887437335</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
-        <v>407.6027988439302</v>
+        <v>315.7976763395181</v>
       </c>
       <c r="Y38" t="n">
         <v>401.2838973446586</v>
@@ -3666,16 +3666,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>123.9086344760398</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
@@ -3739,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>148.8161893795805</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>281.0278647211301</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3909,13 +3909,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>124.2290557831222</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
@@ -3979,25 +3979,25 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4036,13 +4036,13 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>281.0278647211301</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>139.2702769432207</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>96.44420510686383</v>
+        <v>49.87597792716532</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1172.417318383226</v>
+        <v>878.4367930577022</v>
       </c>
       <c r="C2" t="n">
-        <v>893.7677857163897</v>
+        <v>878.4367930577022</v>
       </c>
       <c r="D2" t="n">
-        <v>470.47516490139</v>
+        <v>878.4367930577022</v>
       </c>
       <c r="E2" t="n">
-        <v>44.49822504924752</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="F2" t="n">
-        <v>44.49822504924752</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="G2" t="n">
-        <v>44.49822504924752</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H2" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I2" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J2" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K2" t="n">
-        <v>572.9146475090618</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L2" t="n">
-        <v>572.9146475090618</v>
+        <v>407.101683866143</v>
       </c>
       <c r="M2" t="n">
-        <v>1123.5801824935</v>
+        <v>455.3583126271592</v>
       </c>
       <c r="N2" t="n">
-        <v>1674.245717477938</v>
+        <v>1006.023847611597</v>
       </c>
       <c r="O2" t="n">
-        <v>2224.911252462376</v>
+        <v>1556.689382596036</v>
       </c>
       <c r="P2" t="n">
-        <v>2224.911252462376</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="Q2" t="n">
-        <v>2224.911252462376</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R2" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S2" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T2" t="n">
-        <v>2003.985681507009</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U2" t="n">
-        <v>2003.985681507009</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V2" t="n">
-        <v>2003.985681507009</v>
+        <v>1283.774063102812</v>
       </c>
       <c r="W2" t="n">
-        <v>2003.985681507009</v>
+        <v>1283.774063102812</v>
       </c>
       <c r="X2" t="n">
-        <v>1592.265682674756</v>
+        <v>1283.774063102812</v>
       </c>
       <c r="Y2" t="n">
-        <v>1592.265682674756</v>
+        <v>878.4367930577022</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>983.3471129133208</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C3" t="n">
-        <v>865.8412094308255</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D3" t="n">
-        <v>762.0012509461105</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E3" t="n">
-        <v>657.2993172190478</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F3" t="n">
-        <v>563.653486901952</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G3" t="n">
-        <v>469.599715119556</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H3" t="n">
-        <v>416.2236218818656</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I3" t="n">
-        <v>416.2236218818656</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J3" t="n">
-        <v>687.9211111614567</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K3" t="n">
-        <v>687.9211111614567</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L3" t="n">
-        <v>687.9211111614567</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="M3" t="n">
-        <v>1128.080930530455</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="N3" t="n">
-        <v>1678.746465514893</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="O3" t="n">
-        <v>1678.746465514893</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="P3" t="n">
-        <v>1678.746465514893</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="Q3" t="n">
-        <v>2142.891942377672</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R3" t="n">
-        <v>2224.911252462376</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S3" t="n">
-        <v>2143.58700502363</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T3" t="n">
-        <v>2001.707069321308</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U3" t="n">
-        <v>1816.938873240945</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V3" t="n">
-        <v>1611.965734380211</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W3" t="n">
-        <v>1415.444357213428</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X3" t="n">
-        <v>1251.967010980091</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y3" t="n">
-        <v>1112.274122333384</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>479.5561293032848</v>
+        <v>792.8526545450782</v>
       </c>
       <c r="C4" t="n">
-        <v>307.5835661822009</v>
+        <v>620.8800914239941</v>
       </c>
       <c r="D4" t="n">
-        <v>144.2667933089716</v>
+        <v>457.5633185507648</v>
       </c>
       <c r="E4" t="n">
-        <v>144.2667933089716</v>
+        <v>360.1562677665327</v>
       </c>
       <c r="F4" t="n">
-        <v>144.2667933089716</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="G4" t="n">
-        <v>144.2667933089716</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="H4" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I4" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J4" t="n">
         <v>101.9895532734055</v>
@@ -4509,31 +4509,31 @@
         <v>2097.911122221614</v>
       </c>
       <c r="Q4" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R4" t="n">
-        <v>2224.911252462376</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="S4" t="n">
-        <v>2054.776204981511</v>
+        <v>2007.737591668685</v>
       </c>
       <c r="T4" t="n">
-        <v>1811.43685720741</v>
+        <v>1764.398243894585</v>
       </c>
       <c r="U4" t="n">
-        <v>1531.252408707715</v>
+        <v>1484.213795394889</v>
       </c>
       <c r="V4" t="n">
-        <v>1249.540941315744</v>
+        <v>1484.213795394889</v>
       </c>
       <c r="W4" t="n">
-        <v>974.6885374882565</v>
+        <v>1209.361391567402</v>
       </c>
       <c r="X4" t="n">
-        <v>896.0648663256084</v>
+        <v>1209.361391567402</v>
       </c>
       <c r="Y4" t="n">
-        <v>669.7220980153504</v>
+        <v>983.0186232571439</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>896.5231368465472</v>
+        <v>2078.557947296184</v>
       </c>
       <c r="C5" t="n">
-        <v>469.6224068598473</v>
+        <v>1651.657217309483</v>
       </c>
       <c r="D5" t="n">
-        <v>469.6224068598473</v>
+        <v>1228.364596494484</v>
       </c>
       <c r="E5" t="n">
-        <v>469.6224068598473</v>
+        <v>802.3876566423413</v>
       </c>
       <c r="F5" t="n">
-        <v>44.49822504924752</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="G5" t="n">
-        <v>44.49822504924752</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H5" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I5" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>595.1637600336854</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L5" t="n">
-        <v>1100.603903091852</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M5" t="n">
-        <v>1651.26943807629</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="N5" t="n">
-        <v>1651.26943807629</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="O5" t="n">
-        <v>1651.26943807629</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="P5" t="n">
-        <v>1651.26943807629</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q5" t="n">
-        <v>2107.354917580473</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R5" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U5" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="V5" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="W5" t="n">
-        <v>2133.42877001544</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="X5" t="n">
-        <v>1721.708771183187</v>
+        <v>2078.557947296184</v>
       </c>
       <c r="Y5" t="n">
-        <v>1316.371501138077</v>
+        <v>2078.557947296184</v>
       </c>
     </row>
     <row r="6">
@@ -4628,46 +4628,46 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D6" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E6" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F6" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G6" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H6" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="K6" t="n">
-        <v>44.49822504924752</v>
+        <v>602.6104029955975</v>
       </c>
       <c r="L6" t="n">
-        <v>595.1637600336854</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="M6" t="n">
-        <v>1145.829295018124</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="N6" t="n">
-        <v>1696.494830002561</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="O6" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P6" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q6" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R6" t="n">
         <v>1853.185855629757</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>485.7509513926031</v>
+        <v>505.7818726238046</v>
       </c>
       <c r="C7" t="n">
-        <v>313.7783882715191</v>
+        <v>505.7818726238046</v>
       </c>
       <c r="D7" t="n">
-        <v>150.4616153982898</v>
+        <v>482.385537240179</v>
       </c>
       <c r="E7" t="n">
-        <v>44.49822504924752</v>
+        <v>482.385537240179</v>
       </c>
       <c r="F7" t="n">
-        <v>44.49822504924752</v>
+        <v>310.5237630147394</v>
       </c>
       <c r="G7" t="n">
-        <v>44.49822504924752</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="H7" t="n">
-        <v>44.49822504924752</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I7" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>101.9895532734055</v>
+        <v>101.9895532734062</v>
       </c>
       <c r="K7" t="n">
-        <v>328.5171544792427</v>
+        <v>328.5171544792433</v>
       </c>
       <c r="L7" t="n">
-        <v>683.2064757736634</v>
+        <v>683.2064757736641</v>
       </c>
       <c r="M7" t="n">
-        <v>1074.392270743914</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N7" t="n">
-        <v>1451.88378161995</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O7" t="n">
-        <v>1807.311910299713</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P7" t="n">
-        <v>2097.911122221614</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q7" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R7" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S7" t="n">
-        <v>2224.911252462376</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T7" t="n">
-        <v>1981.571904688275</v>
+        <v>1811.436857207411</v>
       </c>
       <c r="U7" t="n">
-        <v>1701.38745618858</v>
+        <v>1531.252408707716</v>
       </c>
       <c r="V7" t="n">
-        <v>1419.675988796609</v>
+        <v>1249.540941315744</v>
       </c>
       <c r="W7" t="n">
-        <v>1144.823584969122</v>
+        <v>974.6885374882575</v>
       </c>
       <c r="X7" t="n">
-        <v>902.2596884149267</v>
+        <v>732.1246409340625</v>
       </c>
       <c r="Y7" t="n">
-        <v>675.9169201046687</v>
+        <v>505.7818726238046</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>887.3827134031578</v>
+        <v>328.6803539293841</v>
       </c>
       <c r="C8" t="n">
-        <v>887.3827134031578</v>
+        <v>328.6803539293841</v>
       </c>
       <c r="D8" t="n">
-        <v>887.3827134031578</v>
+        <v>328.6803539293841</v>
       </c>
       <c r="E8" t="n">
-        <v>887.3827134031578</v>
+        <v>328.6803539293841</v>
       </c>
       <c r="F8" t="n">
-        <v>462.258531592558</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="G8" t="n">
-        <v>342.3666035752127</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H8" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I8" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
         <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>407.101683866143</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L8" t="n">
-        <v>407.101683866143</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M8" t="n">
-        <v>455.358312627159</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="N8" t="n">
-        <v>1006.023847611597</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="O8" t="n">
-        <v>1556.689382596035</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="P8" t="n">
-        <v>2107.354917580473</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q8" t="n">
-        <v>2107.354917580473</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R8" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2120.543958335516</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T8" t="n">
-        <v>1899.618387380149</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U8" t="n">
-        <v>1641.263477976561</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="V8" t="n">
-        <v>1283.774063102811</v>
+        <v>1542.1289725064</v>
       </c>
       <c r="W8" t="n">
-        <v>887.3827134031578</v>
+        <v>1145.737622806746</v>
       </c>
       <c r="X8" t="n">
-        <v>887.3827134031578</v>
+        <v>734.0176239744937</v>
       </c>
       <c r="Y8" t="n">
-        <v>887.3827134031578</v>
+        <v>328.6803539293841</v>
       </c>
     </row>
     <row r="9">
@@ -4865,34 +4865,34 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D9" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E9" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F9" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G9" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H9" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>51.94486801115936</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>51.94486801115936</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K9" t="n">
-        <v>51.94486801115936</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="L9" t="n">
-        <v>602.6104029955973</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="M9" t="n">
-        <v>751.8547856608814</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="N9" t="n">
         <v>1302.520320645319</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1127.679347573484</v>
+        <v>315.615903911738</v>
       </c>
       <c r="C10" t="n">
-        <v>955.7067844524004</v>
+        <v>143.643340790654</v>
       </c>
       <c r="D10" t="n">
-        <v>792.3900115791711</v>
+        <v>143.643340790654</v>
       </c>
       <c r="E10" t="n">
-        <v>626.1818057320246</v>
+        <v>143.643340790654</v>
       </c>
       <c r="F10" t="n">
-        <v>454.3200315065851</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G10" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H10" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I10" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J10" t="n">
         <v>101.9895532734055</v>
@@ -4989,25 +4989,25 @@
         <v>2224.911252462376</v>
       </c>
       <c r="S10" t="n">
-        <v>2224.911252462376</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T10" t="n">
-        <v>2224.911252462376</v>
+        <v>1811.43685720741</v>
       </c>
       <c r="U10" t="n">
-        <v>2224.911252462376</v>
+        <v>1531.252408707715</v>
       </c>
       <c r="V10" t="n">
-        <v>2061.60438497749</v>
+        <v>1249.540941315744</v>
       </c>
       <c r="W10" t="n">
-        <v>1786.751981150003</v>
+        <v>974.6885374882565</v>
       </c>
       <c r="X10" t="n">
-        <v>1544.188084595808</v>
+        <v>732.1246409340616</v>
       </c>
       <c r="Y10" t="n">
-        <v>1317.84531628555</v>
+        <v>505.7818726238037</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>988.0056192934833</v>
+        <v>1780.689568770218</v>
       </c>
       <c r="C11" t="n">
-        <v>561.1048893067834</v>
+        <v>1353.788838783518</v>
       </c>
       <c r="D11" t="n">
-        <v>137.8122684917837</v>
+        <v>930.4962179685185</v>
       </c>
       <c r="E11" t="n">
-        <v>44.49822504924752</v>
+        <v>504.5192781163761</v>
       </c>
       <c r="F11" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="G11" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H11" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I11" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J11" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K11" t="n">
-        <v>595.1637600336854</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L11" t="n">
-        <v>1006.023847611597</v>
+        <v>407.101683866143</v>
       </c>
       <c r="M11" t="n">
-        <v>1556.689382596035</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="N11" t="n">
-        <v>1556.689382596035</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="O11" t="n">
-        <v>2107.354917580473</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P11" t="n">
-        <v>2107.354917580473</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q11" t="n">
-        <v>2107.354917580473</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R11" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S11" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T11" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U11" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V11" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W11" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="X11" t="n">
-        <v>1813.191253630123</v>
+        <v>1813.191253630124</v>
       </c>
       <c r="Y11" t="n">
-        <v>1407.853983585013</v>
+        <v>1780.689568770218</v>
       </c>
     </row>
     <row r="12">
@@ -5102,46 +5102,46 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D12" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E12" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F12" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G12" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H12" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I12" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J12" t="n">
-        <v>44.49822504924752</v>
+        <v>201.1892506764427</v>
       </c>
       <c r="K12" t="n">
-        <v>44.49822504924752</v>
+        <v>201.1892506764427</v>
       </c>
       <c r="L12" t="n">
-        <v>44.49822504924752</v>
+        <v>201.1892506764427</v>
       </c>
       <c r="M12" t="n">
-        <v>205.6899987133988</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="N12" t="n">
-        <v>756.3555336978368</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="O12" t="n">
-        <v>1307.021068682275</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P12" t="n">
-        <v>1307.021068682275</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q12" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R12" t="n">
         <v>1853.185855629757</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>268.5772905989112</v>
+        <v>485.7509513926031</v>
       </c>
       <c r="C13" t="n">
-        <v>96.60472747782725</v>
+        <v>313.7783882715191</v>
       </c>
       <c r="D13" t="n">
-        <v>44.49822504924752</v>
+        <v>313.7783882715191</v>
       </c>
       <c r="E13" t="n">
-        <v>44.49822504924752</v>
+        <v>313.7783882715191</v>
       </c>
       <c r="F13" t="n">
-        <v>44.49822504924752</v>
+        <v>141.9166140460796</v>
       </c>
       <c r="G13" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H13" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I13" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J13" t="n">
         <v>101.9895532734055</v>
@@ -5223,28 +5223,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R13" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S13" t="n">
-        <v>2007.737591668684</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T13" t="n">
-        <v>1764.398243894584</v>
+        <v>1981.571904688275</v>
       </c>
       <c r="U13" t="n">
-        <v>1484.213795394888</v>
+        <v>1701.38745618858</v>
       </c>
       <c r="V13" t="n">
-        <v>1202.502328002917</v>
+        <v>1419.675988796609</v>
       </c>
       <c r="W13" t="n">
-        <v>927.6499241754298</v>
+        <v>1144.823584969122</v>
       </c>
       <c r="X13" t="n">
-        <v>685.0860276212348</v>
+        <v>902.2596884149267</v>
       </c>
       <c r="Y13" t="n">
-        <v>458.7432593109769</v>
+        <v>675.9169201046687</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>804.1642048184414</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="C14" t="n">
-        <v>377.2634748317415</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="D14" t="n">
-        <v>377.2634748317415</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="E14" t="n">
-        <v>377.2634748317415</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="F14" t="n">
-        <v>377.2634748317415</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="G14" t="n">
-        <v>377.2634748317415</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H14" t="n">
-        <v>79.39509630577631</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I14" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J14" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K14" t="n">
-        <v>44.49822504924752</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="L14" t="n">
-        <v>595.1637600336854</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="M14" t="n">
-        <v>1123.5801824935</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="N14" t="n">
-        <v>1674.245717477938</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="O14" t="n">
-        <v>2224.911252462376</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P14" t="n">
-        <v>2224.911252462376</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q14" t="n">
-        <v>2224.911252462376</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R14" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S14" t="n">
-        <v>2120.543958335516</v>
+        <v>2141.566386395769</v>
       </c>
       <c r="T14" t="n">
-        <v>1899.618387380149</v>
+        <v>1920.640815440402</v>
       </c>
       <c r="U14" t="n">
-        <v>1641.263477976561</v>
+        <v>1662.285906036814</v>
       </c>
       <c r="V14" t="n">
-        <v>1283.774063102811</v>
+        <v>1662.285906036814</v>
       </c>
       <c r="W14" t="n">
-        <v>887.3827134031578</v>
+        <v>1265.894556337161</v>
       </c>
       <c r="X14" t="n">
-        <v>804.1642048184414</v>
+        <v>854.1745575049085</v>
       </c>
       <c r="Y14" t="n">
-        <v>804.1642048184414</v>
+        <v>448.8372874597989</v>
       </c>
     </row>
     <row r="15">
@@ -5339,37 +5339,37 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D15" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E15" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F15" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G15" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H15" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I15" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J15" t="n">
-        <v>44.49822504924752</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K15" t="n">
-        <v>44.49822504924752</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="L15" t="n">
-        <v>201.1892506764434</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="M15" t="n">
-        <v>751.8547856608814</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="N15" t="n">
-        <v>1302.520320645319</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="O15" t="n">
         <v>1853.185855629757</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>268.5772905989112</v>
+        <v>532.1288308876167</v>
       </c>
       <c r="C16" t="n">
-        <v>96.60472747782725</v>
+        <v>360.1562677665327</v>
       </c>
       <c r="D16" t="n">
-        <v>44.49822504924752</v>
+        <v>360.1562677665327</v>
       </c>
       <c r="E16" t="n">
-        <v>44.49822504924752</v>
+        <v>360.1562677665327</v>
       </c>
       <c r="F16" t="n">
-        <v>44.49822504924752</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="G16" t="n">
-        <v>44.49822504924752</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="H16" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I16" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J16" t="n">
         <v>101.9895532734055</v>
@@ -5442,46 +5442,46 @@
         <v>328.5171544792427</v>
       </c>
       <c r="L16" t="n">
-        <v>683.2064757736634</v>
+        <v>683.2064757736641</v>
       </c>
       <c r="M16" t="n">
-        <v>1074.392270743914</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N16" t="n">
-        <v>1451.88378161995</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O16" t="n">
-        <v>1807.311910299713</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P16" t="n">
-        <v>2097.911122221614</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q16" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R16" t="n">
-        <v>2177.872639149549</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="S16" t="n">
-        <v>2007.737591668684</v>
+        <v>2007.737591668685</v>
       </c>
       <c r="T16" t="n">
-        <v>1764.398243894584</v>
+        <v>1785.385887629094</v>
       </c>
       <c r="U16" t="n">
-        <v>1484.213795394888</v>
+        <v>1505.201439129399</v>
       </c>
       <c r="V16" t="n">
-        <v>1202.502328002917</v>
+        <v>1223.489971737427</v>
       </c>
       <c r="W16" t="n">
-        <v>927.6499241754298</v>
+        <v>948.6375679099403</v>
       </c>
       <c r="X16" t="n">
-        <v>685.0860276212348</v>
+        <v>948.6375679099403</v>
       </c>
       <c r="Y16" t="n">
-        <v>458.7432593109769</v>
+        <v>722.2947995996824</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>448.8372874597989</v>
+        <v>991.7500075300184</v>
       </c>
       <c r="C17" t="n">
-        <v>448.8372874597989</v>
+        <v>991.7500075300184</v>
       </c>
       <c r="D17" t="n">
-        <v>448.8372874597989</v>
+        <v>991.7500075300184</v>
       </c>
       <c r="E17" t="n">
-        <v>448.8372874597989</v>
+        <v>991.7500075300184</v>
       </c>
       <c r="F17" t="n">
-        <v>448.8372874597989</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="G17" t="n">
-        <v>44.49822504924752</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H17" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I17" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J17" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K17" t="n">
-        <v>595.1637600336854</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L17" t="n">
-        <v>595.1637600336854</v>
+        <v>407.101683866143</v>
       </c>
       <c r="M17" t="n">
-        <v>595.1637600336854</v>
+        <v>407.101683866143</v>
       </c>
       <c r="N17" t="n">
-        <v>1145.829295018124</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="O17" t="n">
-        <v>1696.494830002561</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="P17" t="n">
-        <v>2224.911252462376</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q17" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R17" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S17" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T17" t="n">
-        <v>2224.911252462376</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U17" t="n">
-        <v>2224.911252462376</v>
+        <v>1745.630772103422</v>
       </c>
       <c r="V17" t="n">
-        <v>1867.421837588625</v>
+        <v>1388.141357229671</v>
       </c>
       <c r="W17" t="n">
-        <v>1471.030487888972</v>
+        <v>991.7500075300184</v>
       </c>
       <c r="X17" t="n">
-        <v>1059.310489056719</v>
+        <v>991.7500075300184</v>
       </c>
       <c r="Y17" t="n">
-        <v>653.9732190116096</v>
+        <v>991.7500075300184</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>983.3471129133208</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C18" t="n">
-        <v>865.8412094308255</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D18" t="n">
-        <v>762.0012509461105</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E18" t="n">
-        <v>657.2993172190478</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F18" t="n">
-        <v>563.653486901952</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G18" t="n">
-        <v>469.599715119556</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H18" t="n">
-        <v>416.2236218818656</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I18" t="n">
-        <v>416.2236218818656</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J18" t="n">
-        <v>416.2236218818656</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K18" t="n">
-        <v>416.2236218818656</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L18" t="n">
-        <v>416.2236218818656</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M18" t="n">
-        <v>966.8891568663036</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N18" t="n">
-        <v>1517.554691850742</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="O18" t="n">
-        <v>1674.245717477938</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P18" t="n">
-        <v>2224.911252462376</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q18" t="n">
-        <v>2224.911252462376</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R18" t="n">
-        <v>2224.911252462376</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S18" t="n">
-        <v>2143.58700502363</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T18" t="n">
-        <v>2001.707069321308</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U18" t="n">
-        <v>1816.938873240945</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V18" t="n">
-        <v>1611.965734380211</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W18" t="n">
-        <v>1415.444357213428</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X18" t="n">
-        <v>1251.967010980091</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y18" t="n">
-        <v>1112.274122333384</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="19">
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1127.679347573484</v>
+        <v>388.3325623957711</v>
       </c>
       <c r="C19" t="n">
-        <v>955.7067844524004</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="D19" t="n">
-        <v>792.3900115791711</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E19" t="n">
-        <v>626.1818057320246</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F19" t="n">
-        <v>454.3200315065851</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G19" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H19" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I19" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J19" t="n">
         <v>101.9895532734055</v>
@@ -5700,25 +5700,25 @@
         <v>2224.911252462376</v>
       </c>
       <c r="S19" t="n">
-        <v>2054.776204981511</v>
+        <v>2127.492863465543</v>
       </c>
       <c r="T19" t="n">
-        <v>1811.43685720741</v>
+        <v>1884.153515691443</v>
       </c>
       <c r="U19" t="n">
-        <v>1531.252408707715</v>
+        <v>1603.969067191748</v>
       </c>
       <c r="V19" t="n">
-        <v>1531.252408707715</v>
+        <v>1322.257599799776</v>
       </c>
       <c r="W19" t="n">
-        <v>1531.252408707715</v>
+        <v>1047.405195972289</v>
       </c>
       <c r="X19" t="n">
-        <v>1531.252408707715</v>
+        <v>804.8412994180946</v>
       </c>
       <c r="Y19" t="n">
-        <v>1317.84531628555</v>
+        <v>578.4985311078367</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>781.6025372422928</v>
+        <v>844.7676468884964</v>
       </c>
       <c r="C20" t="n">
-        <v>781.6025372422928</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="D20" t="n">
-        <v>781.6025372422928</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="E20" t="n">
-        <v>781.6025372422928</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="F20" t="n">
-        <v>781.6025372422928</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="G20" t="n">
         <v>377.2634748317415</v>
       </c>
       <c r="H20" t="n">
-        <v>79.39509630577631</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I20" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J20" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K20" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L20" t="n">
-        <v>595.1637600336854</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="M20" t="n">
-        <v>1123.5801824935</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="N20" t="n">
-        <v>1674.245717477938</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="O20" t="n">
-        <v>2224.911252462376</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P20" t="n">
-        <v>2224.911252462376</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q20" t="n">
-        <v>2224.911252462376</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R20" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S20" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T20" t="n">
-        <v>2003.985681507009</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U20" t="n">
-        <v>1745.630772103421</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="V20" t="n">
-        <v>1388.141357229671</v>
+        <v>1646.496266633259</v>
       </c>
       <c r="W20" t="n">
-        <v>991.7500075300175</v>
+        <v>1250.104916933606</v>
       </c>
       <c r="X20" t="n">
-        <v>991.7500075300175</v>
+        <v>1250.104916933606</v>
       </c>
       <c r="Y20" t="n">
-        <v>781.6025372422928</v>
+        <v>844.7676468884964</v>
       </c>
     </row>
     <row r="21">
@@ -5813,37 +5813,37 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D21" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E21" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F21" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G21" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H21" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I21" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J21" t="n">
-        <v>44.49822504924752</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K21" t="n">
-        <v>44.49822504924752</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="L21" t="n">
-        <v>595.1637600336854</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M21" t="n">
-        <v>1145.829295018124</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="N21" t="n">
-        <v>1696.494830002561</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="O21" t="n">
         <v>1853.185855629757</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1127.679347573484</v>
+        <v>388.3325623957711</v>
       </c>
       <c r="C22" t="n">
-        <v>955.7067844524004</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="D22" t="n">
-        <v>792.3900115791711</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E22" t="n">
-        <v>626.1818057320246</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F22" t="n">
-        <v>454.3200315065851</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G22" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H22" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I22" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J22" t="n">
         <v>101.9895532734055</v>
@@ -5937,25 +5937,25 @@
         <v>2224.911252462376</v>
       </c>
       <c r="S22" t="n">
-        <v>2054.776204981511</v>
+        <v>2127.492863465543</v>
       </c>
       <c r="T22" t="n">
-        <v>2054.776204981511</v>
+        <v>1884.153515691443</v>
       </c>
       <c r="U22" t="n">
-        <v>2054.776204981511</v>
+        <v>1603.969067191748</v>
       </c>
       <c r="V22" t="n">
-        <v>2054.776204981511</v>
+        <v>1322.257599799776</v>
       </c>
       <c r="W22" t="n">
-        <v>1786.751981150003</v>
+        <v>1047.405195972289</v>
       </c>
       <c r="X22" t="n">
-        <v>1544.188084595808</v>
+        <v>804.8412994180946</v>
       </c>
       <c r="Y22" t="n">
-        <v>1317.84531628555</v>
+        <v>578.4985311078367</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1641.263477976562</v>
+        <v>893.7677857163897</v>
       </c>
       <c r="C23" t="n">
-        <v>1214.362747989862</v>
+        <v>893.7677857163897</v>
       </c>
       <c r="D23" t="n">
-        <v>1214.362747989862</v>
+        <v>470.47516490139</v>
       </c>
       <c r="E23" t="n">
-        <v>788.3858081377197</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="F23" t="n">
-        <v>363.2616263271199</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G23" t="n">
-        <v>342.3666035752127</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H23" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I23" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J23" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K23" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L23" t="n">
-        <v>595.1637600336855</v>
+        <v>407.101683866143</v>
       </c>
       <c r="M23" t="n">
-        <v>1123.5801824935</v>
+        <v>407.101683866143</v>
       </c>
       <c r="N23" t="n">
-        <v>1674.245717477938</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="O23" t="n">
-        <v>2224.911252462376</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P23" t="n">
-        <v>2224.911252462376</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q23" t="n">
-        <v>2224.911252462376</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R23" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S23" t="n">
-        <v>2120.543958335516</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T23" t="n">
         <v>1899.61838738015</v>
       </c>
       <c r="U23" t="n">
-        <v>1641.263477976562</v>
+        <v>1710.007499707573</v>
       </c>
       <c r="V23" t="n">
-        <v>1641.263477976562</v>
+        <v>1710.007499707573</v>
       </c>
       <c r="W23" t="n">
-        <v>1641.263477976562</v>
+        <v>1313.61615000792</v>
       </c>
       <c r="X23" t="n">
-        <v>1641.263477976562</v>
+        <v>1313.61615000792</v>
       </c>
       <c r="Y23" t="n">
-        <v>1641.263477976562</v>
+        <v>1313.61615000792</v>
       </c>
     </row>
     <row r="24">
@@ -6056,40 +6056,40 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F24" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G24" t="n">
-        <v>97.87431828693794</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H24" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I24" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J24" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K24" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L24" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="M24" t="n">
-        <v>595.1637600336855</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="N24" t="n">
-        <v>1145.829295018124</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="O24" t="n">
-        <v>1696.494830002562</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="P24" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q24" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R24" t="n">
         <v>1853.185855629757</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>268.5772905989117</v>
+        <v>315.615903911738</v>
       </c>
       <c r="C25" t="n">
-        <v>144.2667933089715</v>
+        <v>143.643340790654</v>
       </c>
       <c r="D25" t="n">
-        <v>144.2667933089715</v>
+        <v>143.643340790654</v>
       </c>
       <c r="E25" t="n">
-        <v>144.2667933089715</v>
+        <v>143.643340790654</v>
       </c>
       <c r="F25" t="n">
-        <v>144.2667933089715</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G25" t="n">
-        <v>144.2667933089715</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H25" t="n">
-        <v>144.2667933089715</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I25" t="n">
-        <v>44.49822504924748</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J25" t="n">
         <v>101.9895532734055</v>
@@ -6156,7 +6156,7 @@
         <v>683.2064757736634</v>
       </c>
       <c r="M25" t="n">
-        <v>1074.392270743915</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N25" t="n">
         <v>1451.88378161995</v>
@@ -6171,28 +6171,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R25" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S25" t="n">
-        <v>2007.737591668684</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T25" t="n">
-        <v>1764.398243894584</v>
+        <v>1811.43685720741</v>
       </c>
       <c r="U25" t="n">
-        <v>1484.213795394888</v>
+        <v>1531.252408707715</v>
       </c>
       <c r="V25" t="n">
-        <v>1202.502328002917</v>
+        <v>1249.540941315744</v>
       </c>
       <c r="W25" t="n">
-        <v>927.6499241754302</v>
+        <v>974.6885374882565</v>
       </c>
       <c r="X25" t="n">
-        <v>685.0860276212353</v>
+        <v>732.1246409340616</v>
       </c>
       <c r="Y25" t="n">
-        <v>458.7432593109774</v>
+        <v>505.7818726238037</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1745.792697513689</v>
+        <v>46.8684299339194</v>
       </c>
       <c r="C26" t="n">
-        <v>1318.891967526989</v>
+        <v>46.8684299339194</v>
       </c>
       <c r="D26" t="n">
-        <v>895.5993467119897</v>
+        <v>46.8684299339194</v>
       </c>
       <c r="E26" t="n">
-        <v>469.6224068598473</v>
+        <v>46.8684299339194</v>
       </c>
       <c r="F26" t="n">
-        <v>44.49822504924752</v>
+        <v>46.8684299339194</v>
       </c>
       <c r="G26" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H26" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I26" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J26" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K26" t="n">
-        <v>595.1637600336854</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L26" t="n">
-        <v>595.1637600336854</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="M26" t="n">
-        <v>1006.023847611597</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="N26" t="n">
-        <v>1006.023847611597</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="O26" t="n">
-        <v>1556.689382596035</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P26" t="n">
-        <v>2107.354917580473</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q26" t="n">
-        <v>2107.354917580473</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R26" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S26" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T26" t="n">
-        <v>2224.911252462376</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U26" t="n">
-        <v>2224.911252462376</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V26" t="n">
-        <v>2224.911252462376</v>
+        <v>1283.774063102812</v>
       </c>
       <c r="W26" t="n">
-        <v>2224.911252462376</v>
+        <v>1283.774063102812</v>
       </c>
       <c r="X26" t="n">
-        <v>2224.911252462376</v>
+        <v>872.0540642705591</v>
       </c>
       <c r="Y26" t="n">
-        <v>2165.64106180522</v>
+        <v>466.7167942254495</v>
       </c>
     </row>
     <row r="27">
@@ -6287,43 +6287,43 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D27" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E27" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F27" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G27" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H27" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I27" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J27" t="n">
-        <v>44.49822504924752</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K27" t="n">
-        <v>44.49822504924752</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L27" t="n">
-        <v>44.49822504924752</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M27" t="n">
-        <v>44.49822504924752</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N27" t="n">
-        <v>595.1637600336854</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O27" t="n">
-        <v>1145.829295018124</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="P27" t="n">
-        <v>1696.494830002561</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q27" t="n">
         <v>1771.166545545054</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>720.7977379486854</v>
+        <v>485.7509513926031</v>
       </c>
       <c r="C28" t="n">
-        <v>548.8251748276014</v>
+        <v>313.7783882715191</v>
       </c>
       <c r="D28" t="n">
-        <v>548.8251748276014</v>
+        <v>313.7783882715191</v>
       </c>
       <c r="E28" t="n">
-        <v>382.6169689804549</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F28" t="n">
-        <v>210.7551947550154</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G28" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H28" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I28" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J28" t="n">
         <v>101.9895532734055</v>
@@ -6408,28 +6408,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R28" t="n">
-        <v>2179.773590518762</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S28" t="n">
-        <v>2179.773590518762</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T28" t="n">
-        <v>1936.434242744662</v>
+        <v>1981.571904688275</v>
       </c>
       <c r="U28" t="n">
-        <v>1936.434242744662</v>
+        <v>1701.38745618858</v>
       </c>
       <c r="V28" t="n">
-        <v>1654.722775352691</v>
+        <v>1419.675988796609</v>
       </c>
       <c r="W28" t="n">
-        <v>1379.870371525204</v>
+        <v>1144.823584969122</v>
       </c>
       <c r="X28" t="n">
-        <v>1137.306474971009</v>
+        <v>902.2596884149267</v>
       </c>
       <c r="Y28" t="n">
-        <v>910.9637066607511</v>
+        <v>675.9169201046687</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1708.823959503263</v>
+        <v>804.1642048184415</v>
       </c>
       <c r="C29" t="n">
-        <v>1281.923229516563</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="D29" t="n">
-        <v>895.5993467119897</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="E29" t="n">
-        <v>469.6224068598473</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="F29" t="n">
-        <v>44.49822504924752</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="G29" t="n">
-        <v>44.49822504924752</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H29" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I29" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J29" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K29" t="n">
-        <v>44.49822504924752</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L29" t="n">
-        <v>595.1637600336854</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="M29" t="n">
-        <v>1145.829295018124</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="N29" t="n">
-        <v>1696.494830002561</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="O29" t="n">
-        <v>2107.354917580473</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P29" t="n">
-        <v>2107.354917580473</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q29" t="n">
-        <v>2107.354917580473</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R29" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S29" t="n">
-        <v>2120.543958335516</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T29" t="n">
-        <v>2120.543958335516</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U29" t="n">
-        <v>2120.543958335516</v>
+        <v>1745.630772103422</v>
       </c>
       <c r="V29" t="n">
-        <v>2120.543958335516</v>
+        <v>1388.141357229671</v>
       </c>
       <c r="W29" t="n">
-        <v>2120.543958335516</v>
+        <v>1388.141357229671</v>
       </c>
       <c r="X29" t="n">
-        <v>1708.823959503263</v>
+        <v>1388.141357229671</v>
       </c>
       <c r="Y29" t="n">
-        <v>1708.823959503263</v>
+        <v>982.8040871845618</v>
       </c>
     </row>
     <row r="30">
@@ -6524,46 +6524,46 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D30" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E30" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F30" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G30" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H30" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I30" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J30" t="n">
-        <v>44.49822504924752</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K30" t="n">
-        <v>595.1637600336854</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L30" t="n">
-        <v>1145.829295018124</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M30" t="n">
-        <v>1145.829295018124</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N30" t="n">
-        <v>1145.829295018124</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O30" t="n">
-        <v>1145.829295018124</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="P30" t="n">
-        <v>1696.494830002561</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q30" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R30" t="n">
         <v>1853.185855629757</v>
@@ -6609,16 +6609,16 @@
         <v>216.3599992746871</v>
       </c>
       <c r="F31" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G31" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H31" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I31" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J31" t="n">
         <v>101.9895532734055</v>
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1320.668515703089</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="C32" t="n">
-        <v>893.7677857163897</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="D32" t="n">
-        <v>470.47516490139</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="E32" t="n">
-        <v>44.49822504924752</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="F32" t="n">
-        <v>44.49822504924752</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="G32" t="n">
-        <v>44.49822504924752</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H32" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I32" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J32" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K32" t="n">
-        <v>572.9146475090618</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L32" t="n">
-        <v>1123.5801824935</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="M32" t="n">
-        <v>1674.245717477938</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="N32" t="n">
-        <v>2224.911252462376</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="O32" t="n">
-        <v>2224.911252462376</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P32" t="n">
-        <v>2224.911252462376</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q32" t="n">
-        <v>2224.911252462376</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R32" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S32" t="n">
-        <v>2224.911252462376</v>
+        <v>2205.558210051537</v>
       </c>
       <c r="T32" t="n">
-        <v>2224.911252462376</v>
+        <v>2205.558210051537</v>
       </c>
       <c r="U32" t="n">
-        <v>2224.911252462376</v>
+        <v>1947.203300647949</v>
       </c>
       <c r="V32" t="n">
-        <v>2224.911252462376</v>
+        <v>1589.713885774199</v>
       </c>
       <c r="W32" t="n">
-        <v>2224.911252462376</v>
+        <v>1193.322536074546</v>
       </c>
       <c r="X32" t="n">
-        <v>1813.191253630123</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="Y32" t="n">
-        <v>1407.853983585013</v>
+        <v>781.6025372422929</v>
       </c>
     </row>
     <row r="33">
@@ -6761,46 +6761,46 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D33" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E33" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F33" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G33" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H33" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I33" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J33" t="n">
-        <v>44.49822504924752</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K33" t="n">
-        <v>201.1892506764434</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L33" t="n">
-        <v>751.8547856608814</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M33" t="n">
-        <v>1302.520320645319</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N33" t="n">
-        <v>1853.185855629757</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O33" t="n">
-        <v>1853.185855629757</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="P33" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q33" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R33" t="n">
         <v>1853.185855629757</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>268.5772905989112</v>
+        <v>388.3325623957711</v>
       </c>
       <c r="C34" t="n">
-        <v>96.60472747782725</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="D34" t="n">
-        <v>44.49822504924752</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E34" t="n">
-        <v>44.49822504924752</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F34" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G34" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H34" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I34" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J34" t="n">
         <v>101.9895532734055</v>
@@ -6882,28 +6882,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R34" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S34" t="n">
-        <v>2007.737591668684</v>
+        <v>2127.492863465543</v>
       </c>
       <c r="T34" t="n">
-        <v>1764.398243894584</v>
+        <v>1884.153515691443</v>
       </c>
       <c r="U34" t="n">
-        <v>1484.213795394888</v>
+        <v>1603.969067191748</v>
       </c>
       <c r="V34" t="n">
-        <v>1202.502328002917</v>
+        <v>1322.257599799776</v>
       </c>
       <c r="W34" t="n">
-        <v>927.6499241754298</v>
+        <v>1047.405195972289</v>
       </c>
       <c r="X34" t="n">
-        <v>685.0860276212348</v>
+        <v>804.8412994180946</v>
       </c>
       <c r="Y34" t="n">
-        <v>458.7432593109769</v>
+        <v>578.4985311078367</v>
       </c>
     </row>
     <row r="35">
@@ -6913,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1597.806787648507</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="C35" t="n">
-        <v>1597.806787648507</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="D35" t="n">
-        <v>1597.806787648507</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="E35" t="n">
-        <v>1171.829847796364</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="F35" t="n">
         <v>746.7056659857641</v>
@@ -6931,58 +6931,58 @@
         <v>342.3666035752127</v>
       </c>
       <c r="H35" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I35" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J35" t="n">
         <v>407.101683866143</v>
       </c>
       <c r="K35" t="n">
-        <v>572.9146475090618</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L35" t="n">
-        <v>1123.5801824935</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M35" t="n">
-        <v>1674.245717477938</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N35" t="n">
-        <v>2224.911252462376</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="O35" t="n">
-        <v>2224.911252462376</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P35" t="n">
-        <v>2224.911252462376</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q35" t="n">
-        <v>2224.911252462376</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R35" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S35" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T35" t="n">
-        <v>2224.911252462376</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U35" t="n">
-        <v>2224.911252462376</v>
+        <v>1745.630772103422</v>
       </c>
       <c r="V35" t="n">
-        <v>2224.911252462376</v>
+        <v>1388.141357229671</v>
       </c>
       <c r="W35" t="n">
-        <v>2224.911252462376</v>
+        <v>991.7500075300184</v>
       </c>
       <c r="X35" t="n">
-        <v>2003.144057693616</v>
+        <v>991.7500075300184</v>
       </c>
       <c r="Y35" t="n">
-        <v>1597.806787648507</v>
+        <v>746.7056659857641</v>
       </c>
     </row>
     <row r="36">
@@ -6998,46 +6998,46 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D36" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E36" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F36" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G36" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H36" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I36" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J36" t="n">
-        <v>44.49822504924752</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K36" t="n">
-        <v>44.49822504924752</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L36" t="n">
-        <v>44.49822504924752</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M36" t="n">
-        <v>595.1637600336854</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N36" t="n">
-        <v>1145.829295018124</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O36" t="n">
-        <v>1696.494830002561</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="P36" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q36" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R36" t="n">
         <v>1853.185855629757</v>
@@ -7071,37 +7071,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>454.3200315065847</v>
+        <v>388.3325623957711</v>
       </c>
       <c r="C37" t="n">
-        <v>454.3200315065847</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="D37" t="n">
-        <v>454.3200315065847</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E37" t="n">
-        <v>454.3200315065847</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F37" t="n">
-        <v>454.3200315065847</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G37" t="n">
-        <v>288.0630618008169</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H37" t="n">
-        <v>144.2667933089713</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I37" t="n">
-        <v>44.49822504924723</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J37" t="n">
-        <v>101.9895532734052</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K37" t="n">
-        <v>328.5171544792424</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L37" t="n">
-        <v>683.2064757736632</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M37" t="n">
         <v>1074.392270743914</v>
@@ -7119,28 +7119,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R37" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S37" t="n">
-        <v>2007.737591668684</v>
+        <v>2127.492863465543</v>
       </c>
       <c r="T37" t="n">
-        <v>1764.398243894584</v>
+        <v>1884.153515691443</v>
       </c>
       <c r="U37" t="n">
-        <v>1484.213795394888</v>
+        <v>1603.969067191748</v>
       </c>
       <c r="V37" t="n">
-        <v>1202.502328002917</v>
+        <v>1322.257599799776</v>
       </c>
       <c r="W37" t="n">
-        <v>927.6499241754298</v>
+        <v>1047.405195972289</v>
       </c>
       <c r="X37" t="n">
-        <v>685.0860276212348</v>
+        <v>804.8412994180946</v>
       </c>
       <c r="Y37" t="n">
-        <v>458.7432593109769</v>
+        <v>578.4985311078367</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>342.3666035752127</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="C38" t="n">
-        <v>342.3666035752127</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="D38" t="n">
-        <v>342.3666035752127</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="E38" t="n">
-        <v>342.3666035752127</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="F38" t="n">
-        <v>342.3666035752127</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="G38" t="n">
         <v>342.3666035752127</v>
       </c>
       <c r="H38" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I38" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J38" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K38" t="n">
-        <v>455.358312627159</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L38" t="n">
-        <v>1006.023847611597</v>
+        <v>407.101683866143</v>
       </c>
       <c r="M38" t="n">
-        <v>1006.023847611597</v>
+        <v>407.101683866143</v>
       </c>
       <c r="N38" t="n">
-        <v>1556.689382596035</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="O38" t="n">
-        <v>2107.354917580473</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P38" t="n">
-        <v>2107.354917580473</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q38" t="n">
-        <v>2107.354917580473</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R38" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S38" t="n">
-        <v>2120.543958335516</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T38" t="n">
-        <v>1899.618387380149</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U38" t="n">
-        <v>1641.263477976561</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V38" t="n">
-        <v>1283.774063102811</v>
+        <v>1867.421837588626</v>
       </c>
       <c r="W38" t="n">
-        <v>1159.423872452575</v>
+        <v>1471.030487888973</v>
       </c>
       <c r="X38" t="n">
-        <v>747.7038736203224</v>
+        <v>1152.042936030874</v>
       </c>
       <c r="Y38" t="n">
-        <v>342.3666035752127</v>
+        <v>746.7056659857641</v>
       </c>
     </row>
     <row r="39">
@@ -7235,46 +7235,46 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D39" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E39" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F39" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G39" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H39" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I39" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J39" t="n">
-        <v>44.49822504924752</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K39" t="n">
-        <v>44.49822504924752</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L39" t="n">
-        <v>595.1637600336854</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M39" t="n">
-        <v>1145.829295018124</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N39" t="n">
-        <v>1145.829295018124</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O39" t="n">
-        <v>1389.040378766978</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="P39" t="n">
-        <v>1389.040378766978</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q39" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R39" t="n">
         <v>1853.185855629757</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>884.1145108219147</v>
+        <v>388.3325623957711</v>
       </c>
       <c r="C40" t="n">
-        <v>712.1419477008307</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="D40" t="n">
-        <v>548.8251748276014</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E40" t="n">
-        <v>382.6169689804549</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F40" t="n">
-        <v>210.7551947550154</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G40" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H40" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I40" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J40" t="n">
         <v>101.9895532734055</v>
@@ -7359,25 +7359,25 @@
         <v>2224.911252462376</v>
       </c>
       <c r="S40" t="n">
-        <v>2224.911252462376</v>
+        <v>2127.492863465543</v>
       </c>
       <c r="T40" t="n">
-        <v>2224.911252462376</v>
+        <v>1884.153515691443</v>
       </c>
       <c r="U40" t="n">
-        <v>2099.751015617891</v>
+        <v>1603.969067191748</v>
       </c>
       <c r="V40" t="n">
-        <v>1818.03954822592</v>
+        <v>1322.257599799776</v>
       </c>
       <c r="W40" t="n">
-        <v>1543.187144398433</v>
+        <v>1047.405195972289</v>
       </c>
       <c r="X40" t="n">
-        <v>1300.623247844238</v>
+        <v>804.8412994180946</v>
       </c>
       <c r="Y40" t="n">
-        <v>1074.28047953398</v>
+        <v>578.4985311078367</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1357.396947955218</v>
+        <v>1447.573473297096</v>
       </c>
       <c r="C41" t="n">
-        <v>930.4962179685185</v>
+        <v>1447.573473297096</v>
       </c>
       <c r="D41" t="n">
-        <v>930.4962179685185</v>
+        <v>1024.280852482096</v>
       </c>
       <c r="E41" t="n">
-        <v>504.5192781163761</v>
+        <v>1024.280852482096</v>
       </c>
       <c r="F41" t="n">
-        <v>79.39509630577632</v>
+        <v>599.1566706714964</v>
       </c>
       <c r="G41" t="n">
-        <v>79.39509630577632</v>
+        <v>194.817608260945</v>
       </c>
       <c r="H41" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I41" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J41" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K41" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L41" t="n">
-        <v>572.9146475090616</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M41" t="n">
-        <v>1123.5801824935</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="N41" t="n">
-        <v>1674.245717477938</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="O41" t="n">
-        <v>2224.911252462376</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="P41" t="n">
-        <v>2224.911252462376</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="Q41" t="n">
-        <v>2224.911252462376</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R41" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S41" t="n">
-        <v>2120.543958335516</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T41" t="n">
-        <v>1899.61838738015</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U41" t="n">
-        <v>1641.263477976562</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V41" t="n">
-        <v>1357.396947955218</v>
+        <v>1867.421837588626</v>
       </c>
       <c r="W41" t="n">
-        <v>1357.396947955218</v>
+        <v>1867.421837588626</v>
       </c>
       <c r="X41" t="n">
-        <v>1357.396947955218</v>
+        <v>1867.421837588626</v>
       </c>
       <c r="Y41" t="n">
-        <v>1357.396947955218</v>
+        <v>1867.421837588626</v>
       </c>
     </row>
     <row r="42">
@@ -7478,40 +7478,40 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F42" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G42" t="n">
-        <v>97.87431828693794</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H42" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I42" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J42" t="n">
-        <v>44.49822504924752</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K42" t="n">
-        <v>44.49822504924752</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L42" t="n">
-        <v>44.49822504924752</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M42" t="n">
-        <v>595.1637600336855</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N42" t="n">
-        <v>1145.829295018124</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O42" t="n">
-        <v>1696.494830002562</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="P42" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q42" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R42" t="n">
         <v>1853.185855629757</v>
@@ -7545,37 +7545,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>360.2670566621771</v>
+        <v>388.3325623957711</v>
       </c>
       <c r="C43" t="n">
-        <v>188.2944935410931</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="D43" t="n">
-        <v>188.2944935410931</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E43" t="n">
-        <v>188.2944935410931</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F43" t="n">
-        <v>188.2944935410931</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G43" t="n">
-        <v>188.2944935410931</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H43" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I43" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J43" t="n">
-        <v>101.9895532734058</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K43" t="n">
-        <v>328.5171544792429</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L43" t="n">
-        <v>683.2064757736637</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M43" t="n">
         <v>1074.392270743914</v>
@@ -7596,25 +7596,25 @@
         <v>2224.911252462376</v>
       </c>
       <c r="S43" t="n">
-        <v>2099.42735773195</v>
+        <v>2127.492863465543</v>
       </c>
       <c r="T43" t="n">
-        <v>1856.088009957849</v>
+        <v>1884.153515691443</v>
       </c>
       <c r="U43" t="n">
-        <v>1575.903561458154</v>
+        <v>1603.969067191748</v>
       </c>
       <c r="V43" t="n">
-        <v>1294.192094066183</v>
+        <v>1322.257599799776</v>
       </c>
       <c r="W43" t="n">
-        <v>1019.339690238696</v>
+        <v>1047.405195972289</v>
       </c>
       <c r="X43" t="n">
-        <v>776.7757936845007</v>
+        <v>804.8412994180946</v>
       </c>
       <c r="Y43" t="n">
-        <v>550.4330253742428</v>
+        <v>578.4985311078367</v>
       </c>
     </row>
     <row r="44">
@@ -7624,58 +7624,58 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1357.396947955218</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="C44" t="n">
-        <v>930.4962179685185</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="D44" t="n">
-        <v>930.4962179685185</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="E44" t="n">
-        <v>504.5192781163761</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="F44" t="n">
-        <v>79.39509630577632</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="G44" t="n">
-        <v>79.39509630577632</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H44" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I44" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J44" t="n">
         <v>407.101683866143</v>
       </c>
       <c r="K44" t="n">
-        <v>957.7672188505811</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L44" t="n">
-        <v>957.7672188505811</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M44" t="n">
-        <v>957.7672188505811</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="N44" t="n">
-        <v>957.7672188505811</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="O44" t="n">
-        <v>1218.160237973755</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="P44" t="n">
-        <v>1768.825772958193</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q44" t="n">
-        <v>2224.911252462376</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R44" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S44" t="n">
-        <v>2120.543958335516</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T44" t="n">
         <v>1899.61838738015</v>
@@ -7684,16 +7684,16 @@
         <v>1641.263477976562</v>
       </c>
       <c r="V44" t="n">
-        <v>1357.396947955218</v>
+        <v>1283.774063102812</v>
       </c>
       <c r="W44" t="n">
-        <v>1357.396947955218</v>
+        <v>887.3827134031587</v>
       </c>
       <c r="X44" t="n">
-        <v>1357.396947955218</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="Y44" t="n">
-        <v>1357.396947955218</v>
+        <v>746.7056659857641</v>
       </c>
     </row>
     <row r="45">
@@ -7715,16 +7715,16 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F45" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G45" t="n">
-        <v>97.87431828693794</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H45" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I45" t="n">
-        <v>51.94486801115936</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J45" t="n">
         <v>323.6423572907505</v>
@@ -7733,22 +7733,22 @@
         <v>874.3078922751886</v>
       </c>
       <c r="L45" t="n">
-        <v>874.3078922751886</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="M45" t="n">
-        <v>874.3078922751886</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="N45" t="n">
-        <v>874.3078922751886</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="O45" t="n">
-        <v>874.3078922751886</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="P45" t="n">
-        <v>1307.021068682275</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q45" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R45" t="n">
         <v>1853.185855629757</v>
@@ -7794,16 +7794,16 @@
         <v>216.3599992746871</v>
       </c>
       <c r="F46" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G46" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H46" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I46" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J46" t="n">
         <v>101.9895532734055</v>
@@ -7830,7 +7830,7 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R46" t="n">
-        <v>2224.911252462376</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S46" t="n">
         <v>2127.492863465543</v>
@@ -7978,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>569.5185628754298</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L2" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>593.6590760150257</v>
+        <v>86.17533235500369</v>
       </c>
       <c r="N2" t="n">
-        <v>593.50743595004</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O2" t="n">
-        <v>593.6187724716181</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q2" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R2" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8054,31 +8054,31 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L3" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M3" t="n">
-        <v>467.7026586628315</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>577.5708413291355</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>23.17188972222222</v>
+        <v>372.8619081923508</v>
       </c>
       <c r="P3" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
         <v>106.5207073584907</v>
@@ -8157,7 +8157,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
-        <v>152.9025226039383</v>
+        <v>152.9025226039392</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8215,19 +8215,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>591.9924139104032</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
-        <v>548.8576414812759</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M5" t="n">
-        <v>593.6590760150257</v>
+        <v>204.9191049629863</v>
       </c>
       <c r="N5" t="n">
-        <v>37.27962283444602</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O5" t="n">
         <v>37.3909593560241</v>
@@ -8236,10 +8236,10 @@
         <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R5" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8291,25 +8291,25 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L6" t="n">
-        <v>578.7428998298235</v>
+        <v>173.266988396334</v>
       </c>
       <c r="M6" t="n">
-        <v>579.3245936279219</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>577.5708413291355</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O6" t="n">
-        <v>98.59786501766931</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P6" t="n">
         <v>21.77084120482866</v>
@@ -8318,7 +8318,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R6" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8373,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>78.70880469517259</v>
+        <v>78.70880469517321</v>
       </c>
       <c r="K7" t="n">
         <v>249.7804132464869</v>
@@ -8394,7 +8394,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q7" t="n">
-        <v>152.9025226039383</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8455,28 +8455,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L8" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>86.17533235500345</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N8" t="n">
-        <v>593.50743595004</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>593.6187724716181</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P8" t="n">
-        <v>593.8031749258253</v>
+        <v>205.0632038737858</v>
       </c>
       <c r="Q8" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R8" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,22 +8531,22 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>578.7428998298235</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>173.8486821944331</v>
+        <v>455.6345869468032</v>
       </c>
       <c r="N9" t="n">
-        <v>577.5708413291355</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O9" t="n">
-        <v>579.3997028378161</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P9" t="n">
         <v>21.77084120482866</v>
@@ -8689,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>591.9924139104032</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L11" t="n">
-        <v>453.3222319052608</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M11" t="n">
-        <v>593.6590760150257</v>
+        <v>181.710741931019</v>
       </c>
       <c r="N11" t="n">
-        <v>37.27962283444602</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O11" t="n">
-        <v>593.6187724716181</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P11" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
         <v>153.7764225027789</v>
@@ -8768,7 +8768,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J12" t="n">
-        <v>20.61111433333334</v>
+        <v>178.8848775931265</v>
       </c>
       <c r="K12" t="n">
         <v>22.39923383333334</v>
@@ -8777,22 +8777,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>185.9167539104606</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N12" t="n">
-        <v>577.5708413291355</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O12" t="n">
-        <v>579.3997028378161</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P12" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R12" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8929,28 +8929,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K14" t="n">
-        <v>35.76460079480934</v>
+        <v>546.3101998434627</v>
       </c>
       <c r="L14" t="n">
-        <v>594.5398555482168</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M14" t="n">
-        <v>571.1852249800522</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N14" t="n">
-        <v>593.50743595004</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O14" t="n">
-        <v>593.6187724716181</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,25 +9002,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
-        <v>180.7888499740234</v>
+        <v>455.0528931487048</v>
       </c>
       <c r="M15" t="n">
-        <v>579.3245936279219</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N15" t="n">
-        <v>577.5708413291355</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O15" t="n">
-        <v>579.3997028378161</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
         <v>21.77084120482866</v>
@@ -9090,7 +9090,7 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L16" t="n">
-        <v>380.1908016072373</v>
+        <v>380.190801607238</v>
       </c>
       <c r="M16" t="n">
         <v>417.7126065281028</v>
@@ -9105,7 +9105,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q16" t="n">
-        <v>152.9025226039383</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9163,10 +9163,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>591.9924139104032</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L17" t="n">
         <v>38.31204243262292</v>
@@ -9175,16 +9175,16 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N17" t="n">
-        <v>593.50743595004</v>
+        <v>300.3028744740158</v>
       </c>
       <c r="O17" t="n">
-        <v>593.6187724716181</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P17" t="n">
-        <v>571.3293238908516</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q17" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
         <v>35.03264989479647</v>
@@ -9239,28 +9239,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L18" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>579.3245936279219</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>577.5708413291355</v>
+        <v>453.880834648017</v>
       </c>
       <c r="O18" t="n">
-        <v>181.4456529820162</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P18" t="n">
-        <v>577.9986543204226</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
         <v>22.7470382889785</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L20" t="n">
-        <v>594.5398555482168</v>
+        <v>182.5915214642101</v>
       </c>
       <c r="M20" t="n">
-        <v>571.1852249800522</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N20" t="n">
-        <v>593.50743595004</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O20" t="n">
-        <v>593.6187724716181</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P20" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,25 +9476,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L21" t="n">
-        <v>578.7428998298235</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M21" t="n">
-        <v>579.3245936279219</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N21" t="n">
-        <v>577.5708413291355</v>
+        <v>453.880834648017</v>
       </c>
       <c r="O21" t="n">
-        <v>181.445652982016</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
         <v>21.77084120482866</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L23" t="n">
-        <v>594.5398555482169</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M23" t="n">
-        <v>571.1852249800521</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N23" t="n">
-        <v>593.5074359500401</v>
+        <v>181.5591018660332</v>
       </c>
       <c r="O23" t="n">
-        <v>593.6187724716181</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P23" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9725,22 +9725,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>579.324593627922</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>577.5708413291356</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O24" t="n">
-        <v>579.3997028378162</v>
+        <v>185.9918631203545</v>
       </c>
       <c r="P24" t="n">
-        <v>180.0446044646222</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9877,25 +9877,25 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K26" t="n">
-        <v>591.9924139104032</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L26" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M26" t="n">
-        <v>452.4414523720697</v>
+        <v>547.9768619480851</v>
       </c>
       <c r="N26" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O26" t="n">
-        <v>593.6187724716181</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P26" t="n">
-        <v>593.8031749258253</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q26" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
         <v>153.7764225027789</v>
@@ -9950,13 +9950,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L27" t="n">
         <v>22.51508671422956</v>
@@ -9965,16 +9965,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>577.5708413291355</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>579.3997028378161</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>577.9986543204226</v>
+        <v>458.854857777643</v>
       </c>
       <c r="Q27" t="n">
-        <v>98.17301358442559</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
         <v>106.5207073584907</v>
@@ -10111,28 +10111,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L29" t="n">
-        <v>594.5398555482168</v>
+        <v>182.5915214642101</v>
       </c>
       <c r="M29" t="n">
-        <v>593.6590760150257</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N29" t="n">
-        <v>593.50743595004</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O29" t="n">
-        <v>452.4011488286619</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P29" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q29" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
         <v>153.7764225027789</v>
@@ -10187,16 +10187,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>578.6270469489273</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L30" t="n">
-        <v>578.7428998298235</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
         <v>23.09678051232798</v>
@@ -10208,13 +10208,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>577.9986543204226</v>
+        <v>458.854857777643</v>
       </c>
       <c r="Q30" t="n">
-        <v>181.0208015487723</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>569.5185628754298</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L32" t="n">
-        <v>594.5398555482168</v>
+        <v>182.5915214642101</v>
       </c>
       <c r="M32" t="n">
-        <v>593.6590760150257</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N32" t="n">
-        <v>593.50743595004</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O32" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P32" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,34 +10424,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>180.6729970931272</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L33" t="n">
-        <v>578.7428998298235</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>579.3245936279219</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>577.5708413291355</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>458.854857777643</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R33" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10588,28 +10588,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
-        <v>203.2524428583636</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L35" t="n">
-        <v>594.5398555482168</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M35" t="n">
-        <v>593.6590760150257</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N35" t="n">
-        <v>593.50743595004</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O35" t="n">
-        <v>37.3909593560241</v>
+        <v>181.6704383876113</v>
       </c>
       <c r="P35" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q35" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,34 +10661,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L36" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>579.3245936279219</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>577.5708413291355</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>579.3997028378161</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>180.0446044646224</v>
+        <v>458.854857777643</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,28 +10822,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
-        <v>450.7747902674471</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L38" t="n">
-        <v>594.5398555482168</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M38" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N38" t="n">
-        <v>593.50743595004</v>
+        <v>181.5591018660332</v>
       </c>
       <c r="O38" t="n">
-        <v>593.6187724716181</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P38" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q38" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
         <v>153.7764225027789</v>
@@ -10898,34 +10898,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L39" t="n">
-        <v>578.7428998298235</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>579.3245936279219</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>268.8396510847015</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>458.854857777643</v>
       </c>
       <c r="Q39" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,22 +11059,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L41" t="n">
-        <v>572.0660045132432</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M41" t="n">
-        <v>593.6590760150258</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N41" t="n">
-        <v>593.5074359500401</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O41" t="n">
-        <v>593.6187724716181</v>
+        <v>86.13502881159596</v>
       </c>
       <c r="P41" t="n">
         <v>37.5753618102313</v>
@@ -11083,7 +11083,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R41" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11135,34 +11135,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L42" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>579.324593627922</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>577.5708413291356</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>579.3997028378162</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>180.0446044646222</v>
+        <v>458.854857777643</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11299,10 +11299,10 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>591.9924139104033</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L44" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M44" t="n">
         <v>37.43126289943181</v>
@@ -11311,16 +11311,16 @@
         <v>37.27962283444602</v>
       </c>
       <c r="O44" t="n">
-        <v>300.4142109955938</v>
+        <v>181.6704383876113</v>
       </c>
       <c r="P44" t="n">
-        <v>593.8031749258253</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q44" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11378,10 +11378,10 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>578.6270469489274</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L45" t="n">
-        <v>22.51508671422956</v>
+        <v>455.0528931487048</v>
       </c>
       <c r="M45" t="n">
         <v>23.09678051232798</v>
@@ -11393,13 +11393,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>458.854857777643</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q45" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R45" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22546,25 +22546,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
-        <v>146.7686853466648</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>291.3033546524023</v>
       </c>
       <c r="F2" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>34.5479025439635</v>
@@ -22597,25 +22597,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22713,19 +22713,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>68.11314351228518</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22752,7 +22752,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -22764,13 +22764,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>162.3008231376312</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -22783,16 +22783,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -22801,10 +22801,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22834,7 +22834,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>218.7163152458132</v>
@@ -22846,13 +22846,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>301.8597785801899</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>366.0366479149902</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -22941,28 +22941,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>138.5212331147077</v>
       </c>
       <c r="E7" t="n">
-        <v>59.64236734312308</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22992,7 +22992,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -23032,16 +23032,16 @@
         <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>174.0805349451221</v>
       </c>
       <c r="G8" t="n">
-        <v>281.602663049274</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23077,7 +23077,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -23086,10 +23086,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23184,22 +23184,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>71.98949189919276</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23229,16 +23229,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23266,10 +23266,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>329.3362674455102</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>400.2956717864458</v>
@@ -23278,7 +23278,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>369.1072293333519</v>
       </c>
     </row>
     <row r="12">
@@ -23421,16 +23421,16 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>110.0981677402031</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>68.15019490184649</v>
       </c>
       <c r="H13" t="n">
         <v>142.3583058069271</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23497,7 +23497,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
         <v>419.0596946068497</v>
@@ -23509,13 +23509,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>20.81220377964941</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23554,16 +23554,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>325.2164753450609</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23658,19 +23658,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>110.0981677402031</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>98.77088257712678</v>
@@ -23706,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>20.77776729716444</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>212.5653084123222</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
         <v>422.6317226868329</v>
@@ -23743,13 +23743,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>178.279041863682</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>34.5479025439635</v>
@@ -23785,10 +23785,10 @@
         <v>103.323621185591</v>
       </c>
       <c r="T17" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23797,10 +23797,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,16 +23949,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>12.8063191292124</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23971,7 +23971,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>422.6317226868329</v>
+        <v>360.0982641370914</v>
       </c>
       <c r="D20" t="n">
         <v>419.0596946068497</v>
@@ -24025,7 +24025,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24037,7 +24037,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>193.2379017598111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,19 +24177,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>6.759898196019492</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24205,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>379.6095992620578</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I23" t="n">
         <v>34.5479025439635</v>
@@ -24262,13 +24262,13 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>68.05658151370031</v>
       </c>
       <c r="V23" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>407.6027988439302</v>
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>47.18544517283236</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>161.683605144497</v>
@@ -24375,7 +24375,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>71.98949189919276</v>
       </c>
       <c r="G25" t="n">
         <v>164.5944000087102</v>
@@ -24384,7 +24384,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24445,19 +24445,19 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
-        <v>400.2956717864458</v>
+        <v>397.9491689506207</v>
       </c>
       <c r="H26" t="n">
         <v>294.8896947407055</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>342.6064085940741</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24609,13 +24609,13 @@
         <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>68.10191868181128</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
         <v>142.3583058069271</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>1.881941855521028</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
         <v>168.4336970060565</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24679,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>415.6498806486147</v>
+        <v>238.7963971061556</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>36.59905063032176</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H29" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T29" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24846,7 +24846,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>68.10191868181126</v>
+        <v>68.10191868181128</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24916,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>329.3362674455101</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>103.323621185591</v>
+        <v>84.16410919885999</v>
       </c>
       <c r="T32" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U32" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="33">
@@ -25080,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>110.0981677402031</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>164.5944000087102</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25162,10 +25162,10 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25207,22 +25207,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T35" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>188.0532760228583</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>158.6899992158468</v>
       </c>
     </row>
     <row r="36">
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>183.8853134985967</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>161.683605144497</v>
@@ -25323,16 +25323,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25405,7 +25405,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25441,22 +25441,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>269.3207474589231</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>91.80512250441211</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25554,16 +25554,16 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
         <v>142.3583058069271</v>
@@ -25599,13 +25599,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>153.473969538659</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25627,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>146.073505361125</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>72.88665600388288</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>392.4274362026566</v>
@@ -25797,13 +25797,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
         <v>98.77088257712678</v>
@@ -25836,7 +25836,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>44.20464122293424</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25867,25 +25867,25 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25924,13 +25924,13 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>72.88665600388288</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>268.3325219007095</v>
       </c>
       <c r="Y44" t="n">
         <v>401.2838973446586</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>71.98949189919266</v>
+        <v>118.5577190788912</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>483280.9067808173</v>
+        <v>483280.9067808174</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>483280.9067808173</v>
+        <v>483280.9067808174</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>483280.9067808173</v>
+        <v>483280.9067808174</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>483280.9067808173</v>
+        <v>483280.9067808174</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>483280.9067808173</v>
+        <v>483280.9067808174</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>483280.9067808173</v>
+        <v>483280.9067808174</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>483280.9067808173</v>
+        <v>483280.9067808174</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>483280.9067808173</v>
+        <v>483280.9067808174</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>483280.9067808171</v>
+        <v>483280.9067808174</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>483280.9067808173</v>
+        <v>483280.9067808174</v>
       </c>
     </row>
   </sheetData>
@@ -26313,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>135529.7532061195</v>
+        <v>135529.7532061196</v>
       </c>
       <c r="C2" t="n">
-        <v>135529.7532061195</v>
+        <v>135529.7532061196</v>
       </c>
       <c r="D2" t="n">
-        <v>135529.7532061195</v>
+        <v>135529.7532061196</v>
       </c>
       <c r="E2" t="n">
         <v>135529.7532061195</v>
       </c>
       <c r="F2" t="n">
-        <v>135529.7532061195</v>
+        <v>135529.7532061196</v>
       </c>
       <c r="G2" t="n">
         <v>135529.7532061195</v>
       </c>
       <c r="H2" t="n">
-        <v>135529.7532061195</v>
+        <v>135529.7532061196</v>
       </c>
       <c r="I2" t="n">
-        <v>135529.7532061195</v>
+        <v>135529.7532061196</v>
       </c>
       <c r="J2" t="n">
-        <v>135529.7532061195</v>
+        <v>135529.7532061196</v>
       </c>
       <c r="K2" t="n">
         <v>135529.7532061195</v>
       </c>
       <c r="L2" t="n">
-        <v>135529.7532061195</v>
+        <v>135529.7532061196</v>
       </c>
       <c r="M2" t="n">
         <v>135529.7532061195</v>
@@ -26355,7 +26355,7 @@
         <v>135529.7532061195</v>
       </c>
       <c r="P2" t="n">
-        <v>135529.7532061195</v>
+        <v>135529.7532061196</v>
       </c>
     </row>
     <row r="3">
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>145533.6699348164</v>
+        <v>145533.6699348165</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>26326.44296043126</v>
+        <v>26326.44296043128</v>
       </c>
       <c r="C4" t="n">
-        <v>26326.44296043126</v>
+        <v>26326.44296043128</v>
       </c>
       <c r="D4" t="n">
-        <v>26326.44296043126</v>
+        <v>26326.44296043127</v>
       </c>
       <c r="E4" t="n">
-        <v>26326.44296043126</v>
+        <v>26326.44296043127</v>
       </c>
       <c r="F4" t="n">
-        <v>26326.44296043126</v>
+        <v>26326.44296043128</v>
       </c>
       <c r="G4" t="n">
         <v>26326.44296043127</v>
@@ -26438,25 +26438,25 @@
         <v>26326.44296043127</v>
       </c>
       <c r="I4" t="n">
-        <v>26326.44296043126</v>
+        <v>26326.44296043127</v>
       </c>
       <c r="J4" t="n">
-        <v>26326.44296043126</v>
+        <v>26326.44296043127</v>
       </c>
       <c r="K4" t="n">
-        <v>26326.44296043126</v>
+        <v>26326.44296043128</v>
       </c>
       <c r="L4" t="n">
+        <v>26326.44296043128</v>
+      </c>
+      <c r="M4" t="n">
         <v>26326.44296043127</v>
       </c>
-      <c r="M4" t="n">
-        <v>26326.44296043126</v>
-      </c>
       <c r="N4" t="n">
-        <v>26326.44296043126</v>
+        <v>26326.44296043127</v>
       </c>
       <c r="O4" t="n">
-        <v>26326.44296043126</v>
+        <v>26326.44296043127</v>
       </c>
       <c r="P4" t="n">
         <v>26326.44296043127</v>
@@ -26469,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>67446.2510374281</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="C5" t="n">
-        <v>67446.2510374281</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="D5" t="n">
-        <v>67446.2510374281</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="F5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="G5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="H5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="I5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="J5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="K5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="L5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="M5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="N5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="O5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="P5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-144647.674206477</v>
+        <v>-145256.7199189668</v>
       </c>
       <c r="C6" t="n">
-        <v>41757.05920826014</v>
+        <v>41148.01349577052</v>
       </c>
       <c r="D6" t="n">
-        <v>41757.05920826017</v>
+        <v>41148.01349577057</v>
       </c>
       <c r="E6" t="n">
-        <v>75384.65920826013</v>
+        <v>74775.61349577046</v>
       </c>
       <c r="F6" t="n">
-        <v>75384.65920826016</v>
+        <v>74775.61349577052</v>
       </c>
       <c r="G6" t="n">
-        <v>75384.65920826013</v>
+        <v>74775.61349577046</v>
       </c>
       <c r="H6" t="n">
-        <v>75384.65920826016</v>
+        <v>74775.61349577049</v>
       </c>
       <c r="I6" t="n">
-        <v>75384.65920826016</v>
+        <v>74775.61349577052</v>
       </c>
       <c r="J6" t="n">
-        <v>-70149.01072655633</v>
+        <v>-70758.05643904602</v>
       </c>
       <c r="K6" t="n">
-        <v>75384.6592082601</v>
+        <v>74775.61349577046</v>
       </c>
       <c r="L6" t="n">
-        <v>75384.65920826013</v>
+        <v>74775.61349577049</v>
       </c>
       <c r="M6" t="n">
-        <v>75384.6592082601</v>
+        <v>74775.61349577046</v>
       </c>
       <c r="N6" t="n">
-        <v>75384.6592082601</v>
+        <v>74775.61349577046</v>
       </c>
       <c r="O6" t="n">
-        <v>75384.65920826016</v>
+        <v>74775.61349577046</v>
       </c>
       <c r="P6" t="n">
-        <v>75384.65920826014</v>
+        <v>74775.61349577049</v>
       </c>
     </row>
   </sheetData>
@@ -26789,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="C4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="D4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="F4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="G4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="H4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="I4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="J4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="K4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
     </row>
   </sheetData>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.2278131155938</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>533.7539620806205</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>556.2278131155939</v>
+        <v>48.74406945557187</v>
       </c>
       <c r="N2" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O2" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34774,31 +34774,31 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M3" t="n">
-        <v>444.6058781505035</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>349.6900184701286</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>82.84778796434657</v>
@@ -34877,7 +34877,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
-        <v>128.2829598391533</v>
+        <v>128.2829598391542</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
-        <v>510.5455990486529</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M5" t="n">
-        <v>556.2278131155939</v>
+        <v>167.4878420635545</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -34956,10 +34956,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35011,25 +35011,25 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L6" t="n">
-        <v>556.2278131155939</v>
+        <v>150.7519016821045</v>
       </c>
       <c r="M6" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O6" t="n">
-        <v>75.42597529544709</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -35038,7 +35038,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>58.07204871127072</v>
+        <v>58.07204871127134</v>
       </c>
       <c r="K7" t="n">
         <v>228.8157587937749</v>
@@ -35114,7 +35114,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q7" t="n">
-        <v>128.2829598391533</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,28 +35175,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>48.74406945557163</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N8" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P8" t="n">
-        <v>556.2278131155939</v>
+        <v>167.4878420635545</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,22 +35251,22 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>150.7519016821051</v>
+        <v>432.5378064344752</v>
       </c>
       <c r="N9" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O9" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>415.0101894726379</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>556.2278131155939</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O11" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
         <v>118.7437726079824</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>158.2737632597931</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35497,22 +35497,22 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>162.8199733981326</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N12" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O12" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35649,28 +35649,28 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>510.5455990486533</v>
       </c>
       <c r="L14" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>533.7539620806205</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>158.2737632597938</v>
+        <v>432.5378064344752</v>
       </c>
       <c r="M15" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N15" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O15" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35810,7 +35810,7 @@
         <v>228.8157587937749</v>
       </c>
       <c r="L16" t="n">
-        <v>358.2720417115361</v>
+        <v>358.2720417115368</v>
       </c>
       <c r="M16" t="n">
         <v>395.137166636617</v>
@@ -35825,7 +35825,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q16" t="n">
-        <v>128.2829598391533</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,10 +35883,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -35895,16 +35895,16 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>556.2278131155939</v>
+        <v>263.0232516395698</v>
       </c>
       <c r="O17" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P17" t="n">
-        <v>533.7539620806203</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35959,28 +35959,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>556.2278131155939</v>
+        <v>432.5378064344753</v>
       </c>
       <c r="O18" t="n">
-        <v>158.273763259794</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P18" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>556.2278131155939</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="M20" t="n">
-        <v>533.7539620806205</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M21" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N21" t="n">
-        <v>556.2278131155939</v>
+        <v>432.5378064344753</v>
       </c>
       <c r="O21" t="n">
-        <v>158.2737632597938</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>533.7539620806203</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>556.227813115594</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="O23" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36445,22 +36445,22 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O24" t="n">
-        <v>556.227813115594</v>
+        <v>162.8199733981322</v>
       </c>
       <c r="P24" t="n">
-        <v>158.2737632597935</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36597,25 +36597,25 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>415.0101894726379</v>
+        <v>510.5455990486533</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P26" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
         <v>118.7437726079824</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36685,16 +36685,16 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>556.2278131155939</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="Q27" t="n">
-        <v>75.42597529544709</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
         <v>82.84778796434657</v>
@@ -36831,28 +36831,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L29" t="n">
-        <v>556.2278131155939</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="M29" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>415.0101894726378</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
         <v>118.7437726079824</v>
@@ -36907,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L30" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -36928,13 +36928,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>556.2278131155939</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="Q30" t="n">
-        <v>158.2737632597938</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
-        <v>533.7539620806205</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L32" t="n">
-        <v>556.2278131155939</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="M32" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>158.2737632597938</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L33" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37308,28 +37308,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
-        <v>167.4878420635542</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L35" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>158.2737632597938</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37542,28 +37542,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
-        <v>415.0101894726378</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>556.2278131155939</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="O38" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
         <v>118.7437726079824</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L39" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>245.6677613624792</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="Q39" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37779,22 +37779,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>533.7539620806203</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M41" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N41" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O41" t="n">
-        <v>556.227813115594</v>
+        <v>48.74406945557187</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>158.2737632597935</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38019,10 +38019,10 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -38031,16 +38031,16 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>263.0232516395697</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="P44" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,10 +38098,10 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>432.5378064344753</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38113,13 +38113,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>437.0840165728143</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q45" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
